--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>550042.8530845115</v>
+        <v>542443.7400976722</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6387087.320156015</v>
+        <v>6387087.320156016</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C2" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="D2" t="n">
-        <v>229.9609751381512</v>
+        <v>164.9366423243501</v>
       </c>
       <c r="E2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08822281599025586</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
     <row r="3">
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>49.53917553211789</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>211.5435799436399</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>64.25664304350425</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.08822281599019959</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>50.38995230239826</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>38.38533077510929</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>109.0606995868098</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U7" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="W7" t="n">
         <v>229.9609751381512</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>229.9609751381511</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>229.9609751381511</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>173.6320210463238</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>46.39658611529718</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>79.569935615689</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>94.02598646337727</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1.761703922407231</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>229.9609751381511</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>23.25994061538808</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>267.0199967785784</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>291.5650401906958</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -1387,10 +1387,10 @@
         <v>407.3140367424256</v>
       </c>
       <c r="H11" t="n">
-        <v>303.2570595291754</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>70.75558669332813</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
         <v>128.7880777047345</v>
@@ -1460,10 +1460,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>83.37863703246747</v>
       </c>
       <c r="G12" t="n">
-        <v>86.79554262356508</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>116.5164602189057</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>171.5108680416884</v>
       </c>
       <c r="U12" t="n">
         <v>207.9020694674472</v>
@@ -1511,7 +1511,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>187.4140068734885</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>81.06146394987955</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.02972750267305</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>102.2870328475402</v>
       </c>
       <c r="T13" t="n">
         <v>230.0708871067346</v>
@@ -1596,7 +1596,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>407.3140367424256</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>125.7202034590522</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>213.7490296249172</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0578349725913</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>204.5408095962748</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>312.8355667585263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>149.1476881355087</v>
@@ -1706,7 +1706,7 @@
         <v>78.54149487703117</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>17.26184794991725</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>26.60563643571247</v>
+        <v>159.6221595823469</v>
       </c>
       <c r="X15" t="n">
         <v>187.4140068734885</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>187.3649494595527</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>230.0708871067346</v>
       </c>
       <c r="U16" t="n">
-        <v>245.8480552822829</v>
+        <v>282.5423914038366</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>228.7073489291641</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>407.3140367424256</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>125.7202034590522</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>213.7490296249172</v>
+        <v>3.302380009987036</v>
       </c>
       <c r="U17" t="n">
         <v>253.0578349725913</v>
       </c>
       <c r="V17" t="n">
-        <v>52.87814933356458</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -1976,7 +1976,7 @@
         <v>116.5164602189057</v>
       </c>
       <c r="T18" t="n">
-        <v>171.5108680416888</v>
+        <v>171.5108680416884</v>
       </c>
       <c r="U18" t="n">
         <v>207.9020694674472</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
@@ -2016,10 +2016,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>165.8012853557223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.0757383490445</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.02972750267305</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>187.3649494595527</v>
+        <v>156.0233801948179</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>282.5423914038366</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>143.2692875050238</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>95.62478696373329</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>407.3140367424256</v>
+        <v>43.1362435358723</v>
       </c>
       <c r="H20" t="n">
         <v>303.2570595291754</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>125.7202034590522</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>78.54149487703117</v>
       </c>
       <c r="I21" t="n">
-        <v>17.26184794991777</v>
+        <v>17.26184794991725</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>116.5164602189057</v>
+        <v>116.516460218906</v>
       </c>
       <c r="T21" t="n">
         <v>171.5108680416884</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>135.8030239595105</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.8012853557223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>35.57856991101666</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>187.3649494595527</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>230.0708871067346</v>
       </c>
       <c r="U22" t="n">
         <v>282.5423914038366</v>
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>210.9237655786514</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>407.3140367424256</v>
       </c>
       <c r="H23" t="n">
-        <v>303.2570595291754</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>70.75558669332813</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>271.3925711676218</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>9.851629180214516</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.8012853557223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.0757383490445</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>108.6006243522531</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>146.9863155699288</v>
+        <v>282.5423914038366</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -2557,22 +2557,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>407.3140367424256</v>
       </c>
       <c r="H26" t="n">
-        <v>263.8184998946271</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>201.6098224261299</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.7342099813863</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -2724,16 +2724,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.8012853557223</v>
+        <v>113.82067459689</v>
       </c>
       <c r="H28" t="n">
         <v>147.0757383490445</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>108.6006243522531</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>187.3649494595527</v>
       </c>
       <c r="T28" t="n">
-        <v>230.0708871067346</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5423914038366</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>99.43760546997051</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>303.2570595291754</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>125.7202034590522</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>213.7490296249172</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0578349725913</v>
+        <v>156.6895500375605</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>89.74168445608971</v>
+        <v>165.8012853557223</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.94300265654786</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>187.3649494595527</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>230.0708871067346</v>
       </c>
       <c r="U31" t="n">
         <v>282.5423914038366</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>61.88132149170665</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>70.75558669332813</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>213.7490296249172</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0578349725913</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>291.3254298157013</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>88.77021995932132</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>187.3649494595527</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>76.05490140004359</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>207.1694574802582</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>175.5332310959327</v>
       </c>
       <c r="H35" t="n">
         <v>303.2570595291754</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>125.7202034590522</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.7490296249172</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.0578349725913</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>78.54149487703117</v>
       </c>
       <c r="I36" t="n">
-        <v>17.26184794991866</v>
+        <v>17.26184794991725</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>116.5164602189057</v>
+        <v>116.5164602189069</v>
       </c>
       <c r="T36" t="n">
         <v>171.5108680416884</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.9929704947221</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>187.3649494595527</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>230.0708871067346</v>
       </c>
       <c r="U37" t="n">
         <v>282.5423914038366</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>178.2416351153715</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>132.6369081850348</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>347.6258541035166</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>303.2570595291754</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>125.7202034590522</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>213.7490296249172</v>
@@ -3571,7 +3571,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.8012853557223</v>
+        <v>24.87348423050988</v>
       </c>
       <c r="H40" t="n">
-        <v>147.0757383490445</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>108.6006243522531</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.02972750267305</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>187.3649494595527</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>208.4020634807332</v>
+        <v>282.5423914038366</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>407.3140367424256</v>
       </c>
       <c r="H41" t="n">
-        <v>146.50556627643</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>70.75558669332813</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>213.7490296249172</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>9.528341401548655</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>22.98246574694099</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
@@ -3827,16 +3827,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>117.9404949542542</v>
       </c>
       <c r="H42" t="n">
-        <v>78.54149487703117</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3872,16 +3872,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>171.5108680416884</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.9020694674472</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>143.122096654619</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
         <v>187.4140068734885</v>
@@ -3900,22 +3900,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.0757383490445</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.02972750267305</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>83.95550480700606</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5423914038366</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.711956953416472</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>178.9911706127142</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -3994,10 +3994,10 @@
         <v>407.3140367424256</v>
       </c>
       <c r="H44" t="n">
-        <v>303.2570595291754</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>70.75558669332813</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.7490296249172</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0578349725913</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>164.2274086771573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>15.55783451041129</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
         <v>117.9404949542542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>78.54149487703117</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>116.5164602189057</v>
       </c>
       <c r="T45" t="n">
         <v>171.5108680416884</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9020694674472</v>
+        <v>147.0193558306828</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
@@ -4140,22 +4140,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.8012853557223</v>
       </c>
       <c r="H46" t="n">
         <v>147.0757383490445</v>
       </c>
       <c r="I46" t="n">
-        <v>88.34315693984948</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>187.3649494595527</v>
       </c>
       <c r="T46" t="n">
-        <v>230.0708871067346</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>74.52282028004144</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>715.2483178236314</v>
+        <v>417.283360296407</v>
       </c>
       <c r="C2" t="n">
-        <v>482.9645045527716</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="D2" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E2" t="n">
         <v>18.39687801105209</v>
@@ -4330,25 +4330,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J2" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K2" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L2" t="n">
-        <v>246.0582433978217</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M2" t="n">
-        <v>473.7196087845913</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N2" t="n">
-        <v>507.3369750248864</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O2" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P2" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q2" t="n">
         <v>919.8439005526046</v>
@@ -4357,25 +4357,25 @@
         <v>881.8509868381266</v>
       </c>
       <c r="S2" t="n">
-        <v>715.3374317791771</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T2" t="n">
-        <v>715.2483178236314</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U2" t="n">
-        <v>715.2483178236314</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="V2" t="n">
-        <v>715.2483178236314</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="W2" t="n">
-        <v>715.2483178236314</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="X2" t="n">
-        <v>715.2483178236314</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="Y2" t="n">
-        <v>715.2483178236314</v>
+        <v>649.5671735672668</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198.5254166341353</v>
+        <v>154.8433689001644</v>
       </c>
       <c r="C3" t="n">
-        <v>198.5254166341353</v>
+        <v>154.8433689001644</v>
       </c>
       <c r="D3" t="n">
-        <v>68.43644925561563</v>
+        <v>154.8433689001644</v>
       </c>
       <c r="E3" t="n">
-        <v>68.43644925561563</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F3" t="n">
         <v>18.39687801105209</v>
@@ -4409,16 +4409,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J3" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K3" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L3" t="n">
-        <v>246.0582433978217</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M3" t="n">
-        <v>246.0582433978217</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="N3" t="n">
         <v>464.5211697790654</v>
@@ -4427,34 +4427,34 @@
         <v>692.182535165835</v>
       </c>
       <c r="P3" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q3" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R3" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S3" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T3" t="n">
-        <v>718.9430456495777</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="U3" t="n">
-        <v>718.9430456495777</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="V3" t="n">
-        <v>718.9430456495777</v>
+        <v>520.3200871225802</v>
       </c>
       <c r="W3" t="n">
-        <v>718.9430456495777</v>
+        <v>306.6397033411257</v>
       </c>
       <c r="X3" t="n">
-        <v>529.6359679995894</v>
+        <v>306.6397033411257</v>
       </c>
       <c r="Y3" t="n">
-        <v>350.3217510750966</v>
+        <v>306.6397033411257</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>593.126827367731</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C4" t="n">
-        <v>593.126827367731</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D4" t="n">
-        <v>437.4937142702458</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E4" t="n">
-        <v>281.9349021294483</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F4" t="n">
-        <v>281.9349021294483</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G4" t="n">
-        <v>113.6808482288938</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H4" t="n">
-        <v>113.6808482288938</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I4" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J4" t="n">
         <v>18.39687801105209</v>
@@ -4512,28 +4512,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R4" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S4" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T4" t="n">
-        <v>593.126827367731</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U4" t="n">
-        <v>593.126827367731</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="V4" t="n">
-        <v>593.126827367731</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W4" t="n">
-        <v>593.126827367731</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X4" t="n">
-        <v>593.126827367731</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y4" t="n">
-        <v>593.126827367731</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>483.0536185083173</v>
+      </c>
+      <c r="C5" t="n">
+        <v>483.0536185083173</v>
+      </c>
+      <c r="D5" t="n">
+        <v>483.0536185083173</v>
+      </c>
+      <c r="E5" t="n">
+        <v>250.7698052374575</v>
+      </c>
+      <c r="F5" t="n">
         <v>250.6806912819119</v>
-      </c>
-      <c r="C5" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="E5" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="F5" t="n">
-        <v>18.39687801105209</v>
       </c>
       <c r="G5" t="n">
         <v>18.39687801105209</v>
@@ -4567,22 +4567,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J5" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K5" t="n">
-        <v>390.7080163066498</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L5" t="n">
-        <v>390.7080163066498</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M5" t="n">
-        <v>390.7080163066498</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N5" t="n">
+        <v>473.7196087845913</v>
+      </c>
+      <c r="O5" t="n">
         <v>507.3369750248864</v>
-      </c>
-      <c r="O5" t="n">
-        <v>734.998340411656</v>
       </c>
       <c r="P5" t="n">
         <v>734.998340411656</v>
@@ -4591,28 +4591,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R5" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S5" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T5" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="U5" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="V5" t="n">
-        <v>715.2483178236314</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="W5" t="n">
-        <v>715.2483178236314</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="X5" t="n">
-        <v>482.9645045527716</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="Y5" t="n">
-        <v>482.9645045527716</v>
+        <v>715.3374317791771</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399.4262715371622</v>
+        <v>293.4829145678281</v>
       </c>
       <c r="C6" t="n">
-        <v>248.7720410972544</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="D6" t="n">
-        <v>118.6830737187347</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="E6" t="n">
-        <v>118.6830737187347</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="F6" t="n">
-        <v>118.6830737187347</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G6" t="n">
-        <v>118.6830737187347</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H6" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I6" t="n">
         <v>18.39687801105209</v>
@@ -4652,19 +4652,19 @@
         <v>359.1732256175491</v>
       </c>
       <c r="L6" t="n">
-        <v>359.1732256175491</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M6" t="n">
-        <v>359.1732256175491</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N6" t="n">
-        <v>359.1732256175491</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O6" t="n">
-        <v>586.8345910043187</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P6" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q6" t="n">
         <v>919.8439005526046</v>
@@ -4673,25 +4673,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S6" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T6" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U6" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="V6" t="n">
-        <v>919.8439005526046</v>
+        <v>562.3732218235405</v>
       </c>
       <c r="W6" t="n">
-        <v>919.8439005526046</v>
+        <v>332.2559759568273</v>
       </c>
       <c r="X6" t="n">
-        <v>730.5368229026162</v>
+        <v>293.4829145678281</v>
       </c>
       <c r="Y6" t="n">
-        <v>551.2226059781235</v>
+        <v>293.4829145678281</v>
       </c>
     </row>
     <row r="7">
@@ -4749,16 +4749,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R7" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S7" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T7" t="n">
-        <v>482.9645045527716</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U7" t="n">
-        <v>250.6806912819119</v>
+        <v>455.276274010885</v>
       </c>
       <c r="V7" t="n">
         <v>250.6806912819119</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>426.0665711266834</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="C8" t="n">
-        <v>193.7827578558237</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="D8" t="n">
-        <v>18.39687801105209</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="E8" t="n">
-        <v>18.39687801105209</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="F8" t="n">
         <v>18.39687801105209</v>
@@ -4807,49 +4807,49 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K8" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L8" t="n">
-        <v>163.0466509198802</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M8" t="n">
-        <v>163.0466509198802</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N8" t="n">
-        <v>390.7080163066498</v>
+        <v>846.030747080189</v>
       </c>
       <c r="O8" t="n">
-        <v>507.3369750248863</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P8" t="n">
-        <v>734.9983404116559</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q8" t="n">
-        <v>919.8439005526045</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R8" t="n">
-        <v>881.8509868381265</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S8" t="n">
-        <v>881.8509868381265</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T8" t="n">
-        <v>658.3503843975432</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U8" t="n">
-        <v>658.3503843975432</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="V8" t="n">
-        <v>658.3503843975432</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="W8" t="n">
-        <v>658.3503843975432</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="X8" t="n">
-        <v>658.3503843975432</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="Y8" t="n">
-        <v>658.3503843975432</v>
+        <v>65.26211651135227</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>768.0475661116432</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C9" t="n">
-        <v>617.3933356717354</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D9" t="n">
-        <v>537.0196633326556</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E9" t="n">
-        <v>400.5731724435433</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F9" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G9" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H9" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I9" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J9" t="n">
+        <v>131.5118602307795</v>
+      </c>
+      <c r="K9" t="n">
+        <v>359.1732256175491</v>
+      </c>
+      <c r="L9" t="n">
+        <v>586.8345910043187</v>
+      </c>
+      <c r="M9" t="n">
+        <v>692.182535165835</v>
+      </c>
+      <c r="N9" t="n">
+        <v>692.182535165835</v>
+      </c>
+      <c r="O9" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="P9" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="R9" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="S9" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="T9" t="n">
+        <v>742.8600887515131</v>
+      </c>
+      <c r="U9" t="n">
+        <v>532.7969454301549</v>
+      </c>
+      <c r="V9" t="n">
+        <v>437.8212015277536</v>
+      </c>
+      <c r="W9" t="n">
+        <v>207.7039556610404</v>
+      </c>
+      <c r="X9" t="n">
         <v>18.39687801105209</v>
       </c>
-      <c r="K9" t="n">
+      <c r="Y9" t="n">
         <v>18.39687801105209</v>
-      </c>
-      <c r="L9" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="M9" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="N9" t="n">
-        <v>236.8598043922957</v>
-      </c>
-      <c r="O9" t="n">
-        <v>464.5211697790653</v>
-      </c>
-      <c r="P9" t="n">
-        <v>692.1825351658349</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>919.8439005526045</v>
-      </c>
-      <c r="R9" t="n">
-        <v>919.8439005526045</v>
-      </c>
-      <c r="S9" t="n">
-        <v>919.8439005526045</v>
-      </c>
-      <c r="T9" t="n">
-        <v>919.8439005526045</v>
-      </c>
-      <c r="U9" t="n">
-        <v>919.8439005526045</v>
-      </c>
-      <c r="V9" t="n">
-        <v>919.8439005526045</v>
-      </c>
-      <c r="W9" t="n">
-        <v>919.8439005526045</v>
-      </c>
-      <c r="X9" t="n">
-        <v>919.8439005526045</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>919.8439005526045</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C10" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D10" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E10" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F10" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G10" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H10" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I10" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J10" t="n">
         <v>18.39687801105209</v>
@@ -4986,28 +4986,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R10" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S10" t="n">
-        <v>593.126827367731</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T10" t="n">
-        <v>360.8430140968713</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="U10" t="n">
-        <v>337.3481245863783</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="V10" t="n">
-        <v>337.3481245863783</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="W10" t="n">
-        <v>337.3481245863783</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="X10" t="n">
-        <v>337.3481245863783</v>
+        <v>20.17637692257455</v>
       </c>
       <c r="Y10" t="n">
-        <v>337.3481245863783</v>
+        <v>20.17637692257455</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1533.840054947565</v>
+        <v>1264.122886484355</v>
       </c>
       <c r="C11" t="n">
-        <v>1533.840054947565</v>
+        <v>1264.122886484355</v>
       </c>
       <c r="D11" t="n">
-        <v>1533.840054947565</v>
+        <v>1264.122886484355</v>
       </c>
       <c r="E11" t="n">
-        <v>1239.329913340802</v>
+        <v>861.5393616008994</v>
       </c>
       <c r="F11" t="n">
-        <v>822.4354748707798</v>
+        <v>444.6449231308772</v>
       </c>
       <c r="G11" t="n">
-        <v>411.0071549289357</v>
+        <v>33.21660318903317</v>
       </c>
       <c r="H11" t="n">
-        <v>104.6868927782535</v>
+        <v>33.21660318903317</v>
       </c>
       <c r="I11" t="n">
         <v>33.21660318903317</v>
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>511.8561328498617</v>
+        <v>534.6271373839138</v>
       </c>
       <c r="C12" t="n">
-        <v>511.8561328498617</v>
+        <v>383.972906944006</v>
       </c>
       <c r="D12" t="n">
-        <v>381.767165471342</v>
+        <v>253.8839395654863</v>
       </c>
       <c r="E12" t="n">
-        <v>245.3206745822297</v>
+        <v>117.4374486763741</v>
       </c>
       <c r="F12" t="n">
-        <v>120.8888684653615</v>
+        <v>33.21660318903317</v>
       </c>
       <c r="G12" t="n">
         <v>33.21660318903317</v>
@@ -5123,19 +5123,19 @@
         <v>232.2629375687356</v>
       </c>
       <c r="K12" t="n">
-        <v>363.1372459941123</v>
+        <v>643.3184020330211</v>
       </c>
       <c r="L12" t="n">
-        <v>774.1927104583978</v>
+        <v>751.6439930618099</v>
       </c>
       <c r="M12" t="n">
-        <v>913.185530112925</v>
+        <v>890.6368127163371</v>
       </c>
       <c r="N12" t="n">
-        <v>1065.2226953129</v>
+        <v>1042.673977916312</v>
       </c>
       <c r="O12" t="n">
-        <v>1189.864131720535</v>
+        <v>1167.315414323947</v>
       </c>
       <c r="P12" t="n">
         <v>1277.333379962672</v>
@@ -5147,25 +5147,25 @@
         <v>1660.830159451659</v>
       </c>
       <c r="S12" t="n">
-        <v>1543.136765291148</v>
+        <v>1660.830159451659</v>
       </c>
       <c r="T12" t="n">
-        <v>1543.136765291148</v>
+        <v>1487.586858399448</v>
       </c>
       <c r="U12" t="n">
-        <v>1333.134674919989</v>
+        <v>1277.584768028289</v>
       </c>
       <c r="V12" t="n">
-        <v>1110.594673291056</v>
+        <v>1055.044766399356</v>
       </c>
       <c r="W12" t="n">
-        <v>880.4774274243427</v>
+        <v>1055.044766399356</v>
       </c>
       <c r="X12" t="n">
-        <v>691.1703497743545</v>
+        <v>865.7376887493679</v>
       </c>
       <c r="Y12" t="n">
-        <v>511.8561328498617</v>
+        <v>686.4234718248752</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>270.7299829025584</v>
+        <v>33.21660318903317</v>
       </c>
       <c r="C13" t="n">
-        <v>270.7299829025584</v>
+        <v>33.21660318903317</v>
       </c>
       <c r="D13" t="n">
-        <v>115.0968698050731</v>
+        <v>33.21660318903317</v>
       </c>
       <c r="E13" t="n">
         <v>33.21660318903317</v>
@@ -5223,28 +5223,28 @@
         <v>1660.830159451659</v>
       </c>
       <c r="R13" t="n">
-        <v>1571.911242782292</v>
+        <v>1660.830159451659</v>
       </c>
       <c r="S13" t="n">
-        <v>1571.911242782292</v>
+        <v>1557.509924252123</v>
       </c>
       <c r="T13" t="n">
-        <v>1339.516407320944</v>
+        <v>1325.115088790775</v>
       </c>
       <c r="U13" t="n">
-        <v>1054.120052367573</v>
+        <v>1039.718733837405</v>
       </c>
       <c r="V13" t="n">
-        <v>788.1407071883976</v>
+        <v>773.739388658229</v>
       </c>
       <c r="W13" t="n">
-        <v>504.8103051195753</v>
+        <v>490.4089865894067</v>
       </c>
       <c r="X13" t="n">
-        <v>270.7299829025584</v>
+        <v>256.3286643723898</v>
       </c>
       <c r="Y13" t="n">
-        <v>270.7299829025584</v>
+        <v>33.21660318903317</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.21660318903317</v>
+        <v>837.8204246279466</v>
       </c>
       <c r="C14" t="n">
-        <v>33.21660318903317</v>
+        <v>444.6449231308772</v>
       </c>
       <c r="D14" t="n">
-        <v>33.21660318903317</v>
+        <v>444.6449231308772</v>
       </c>
       <c r="E14" t="n">
-        <v>33.21660318903317</v>
+        <v>444.6449231308772</v>
       </c>
       <c r="F14" t="n">
-        <v>33.21660318903317</v>
+        <v>444.6449231308772</v>
       </c>
       <c r="G14" t="n">
         <v>33.21660318903317</v>
@@ -5278,52 +5278,52 @@
         <v>33.21660318903317</v>
       </c>
       <c r="J14" t="n">
-        <v>210.5011401590933</v>
+        <v>322.1449868557674</v>
       </c>
       <c r="K14" t="n">
-        <v>621.5566046233788</v>
+        <v>396.7534048628726</v>
       </c>
       <c r="L14" t="n">
-        <v>738.1010896964619</v>
+        <v>513.2978899359558</v>
       </c>
       <c r="M14" t="n">
-        <v>888.3644193971293</v>
+        <v>663.561219636623</v>
       </c>
       <c r="N14" t="n">
-        <v>1044.058142314069</v>
+        <v>819.2549425535631</v>
       </c>
       <c r="O14" t="n">
-        <v>1455.113606778355</v>
+        <v>957.6041903389913</v>
       </c>
       <c r="P14" t="n">
-        <v>1550.765838381925</v>
+        <v>1292.412330764984</v>
       </c>
       <c r="Q14" t="n">
-        <v>1591.284395493443</v>
+        <v>1660.830159451659</v>
       </c>
       <c r="R14" t="n">
         <v>1660.830159451659</v>
       </c>
       <c r="S14" t="n">
-        <v>1533.840054947565</v>
+        <v>1660.830159451659</v>
       </c>
       <c r="T14" t="n">
-        <v>1317.931944215326</v>
+        <v>1444.922048719419</v>
       </c>
       <c r="U14" t="n">
-        <v>1062.317969495537</v>
+        <v>1444.922048719419</v>
       </c>
       <c r="V14" t="n">
-        <v>720.2111601990551</v>
+        <v>1238.315170339343</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2121251673426</v>
+        <v>1238.315170339343</v>
       </c>
       <c r="X14" t="n">
-        <v>349.2121251673426</v>
+        <v>1238.315170339343</v>
       </c>
       <c r="Y14" t="n">
-        <v>33.21660318903317</v>
+        <v>1238.315170339343</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>773.3047544086788</v>
+        <v>790.7409644591004</v>
       </c>
       <c r="C15" t="n">
-        <v>622.650523968771</v>
+        <v>640.0867340191926</v>
       </c>
       <c r="D15" t="n">
-        <v>492.5615565902514</v>
+        <v>509.9977666406729</v>
       </c>
       <c r="E15" t="n">
-        <v>356.1150657011391</v>
+        <v>373.5512757515606</v>
       </c>
       <c r="F15" t="n">
-        <v>231.6832595842709</v>
+        <v>249.1194696346924</v>
       </c>
       <c r="G15" t="n">
-        <v>112.5514464991657</v>
+        <v>129.9876565495871</v>
       </c>
       <c r="H15" t="n">
-        <v>33.21660318903317</v>
+        <v>50.65281323945464</v>
       </c>
       <c r="I15" t="n">
         <v>33.21660318903317</v>
@@ -5360,25 +5360,25 @@
         <v>232.2629375687356</v>
       </c>
       <c r="K15" t="n">
-        <v>290.4323393745302</v>
+        <v>342.2809032074603</v>
       </c>
       <c r="L15" t="n">
-        <v>398.7579304033188</v>
+        <v>450.606494236249</v>
       </c>
       <c r="M15" t="n">
-        <v>622.6293318344393</v>
+        <v>589.5993138907762</v>
       </c>
       <c r="N15" t="n">
-        <v>774.6664970344148</v>
+        <v>741.6364790907517</v>
       </c>
       <c r="O15" t="n">
-        <v>899.3079334420497</v>
+        <v>866.2779154983866</v>
       </c>
       <c r="P15" t="n">
-        <v>1310.363397906335</v>
+        <v>1277.333379962672</v>
       </c>
       <c r="Q15" t="n">
-        <v>1660.830159451659</v>
+        <v>1627.800141507995</v>
       </c>
       <c r="R15" t="n">
         <v>1660.830159451659</v>
@@ -5396,13 +5396,13 @@
         <v>1320.596763662215</v>
       </c>
       <c r="W15" t="n">
-        <v>1293.722383424121</v>
+        <v>1159.362259033581</v>
       </c>
       <c r="X15" t="n">
-        <v>1104.415305774133</v>
+        <v>970.0551813835932</v>
       </c>
       <c r="Y15" t="n">
-        <v>925.1010888496402</v>
+        <v>790.7409644591004</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.21660318903317</v>
+        <v>188.8497162865184</v>
       </c>
       <c r="C16" t="n">
-        <v>33.21660318903317</v>
+        <v>188.8497162865184</v>
       </c>
       <c r="D16" t="n">
         <v>33.21660318903317</v>
@@ -5463,25 +5463,25 @@
         <v>1660.830159451659</v>
       </c>
       <c r="S16" t="n">
-        <v>1471.57263474504</v>
+        <v>1660.830159451659</v>
       </c>
       <c r="T16" t="n">
-        <v>1239.177799283692</v>
+        <v>1428.435323990311</v>
       </c>
       <c r="U16" t="n">
-        <v>990.8464303116892</v>
+        <v>1143.038969036941</v>
       </c>
       <c r="V16" t="n">
-        <v>724.8670851325135</v>
+        <v>877.0596238577649</v>
       </c>
       <c r="W16" t="n">
-        <v>441.5366830636911</v>
+        <v>646.042099686892</v>
       </c>
       <c r="X16" t="n">
-        <v>441.5366830636911</v>
+        <v>411.9617774698751</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.4246218803345</v>
+        <v>188.8497162865184</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>438.7170938106416</v>
+        <v>850.1454137524856</v>
       </c>
       <c r="C17" t="n">
-        <v>45.54159231357217</v>
+        <v>456.9699122554162</v>
       </c>
       <c r="D17" t="n">
-        <v>45.54159231357217</v>
+        <v>456.9699122554162</v>
       </c>
       <c r="E17" t="n">
-        <v>45.54159231357217</v>
+        <v>456.9699122554162</v>
       </c>
       <c r="F17" t="n">
-        <v>45.54159231357217</v>
+        <v>456.9699122554162</v>
       </c>
       <c r="G17" t="n">
         <v>45.54159231357217</v>
@@ -5515,52 +5515,52 @@
         <v>45.54159231357217</v>
       </c>
       <c r="J17" t="n">
-        <v>73.31716350855571</v>
+        <v>334.4699759803064</v>
       </c>
       <c r="K17" t="n">
-        <v>333.6327272490701</v>
+        <v>714.6880326771433</v>
       </c>
       <c r="L17" t="n">
-        <v>450.1772123221533</v>
+        <v>831.2325177502264</v>
       </c>
       <c r="M17" t="n">
-        <v>1013.754417202609</v>
+        <v>981.4958474508937</v>
       </c>
       <c r="N17" t="n">
-        <v>1577.331622083064</v>
+        <v>1137.189570367834</v>
       </c>
       <c r="O17" t="n">
-        <v>2140.90882696352</v>
+        <v>1275.538818153262</v>
       </c>
       <c r="P17" t="n">
-        <v>2236.56105856709</v>
+        <v>1839.116023033718</v>
       </c>
       <c r="Q17" t="n">
-        <v>2277.079615678608</v>
+        <v>2207.533851720393</v>
       </c>
       <c r="R17" t="n">
         <v>2277.079615678608</v>
       </c>
       <c r="S17" t="n">
-        <v>2150.089511174515</v>
+        <v>2277.079615678608</v>
       </c>
       <c r="T17" t="n">
-        <v>1934.181400442275</v>
+        <v>2273.743878294783</v>
       </c>
       <c r="U17" t="n">
-        <v>1678.567425722486</v>
+        <v>2018.129903574994</v>
       </c>
       <c r="V17" t="n">
-        <v>1625.155153668381</v>
+        <v>2018.129903574994</v>
       </c>
       <c r="W17" t="n">
-        <v>1625.155153668381</v>
+        <v>1647.130868543281</v>
       </c>
       <c r="X17" t="n">
-        <v>1235.702548601437</v>
+        <v>1647.130868543281</v>
       </c>
       <c r="Y17" t="n">
-        <v>839.2118395220384</v>
+        <v>1250.640159463883</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>803.0659535836394</v>
       </c>
       <c r="C18" t="n">
-        <v>652.4117231437316</v>
+        <v>652.4117231437315</v>
       </c>
       <c r="D18" t="n">
         <v>522.3227557652119</v>
@@ -5582,40 +5582,40 @@
         <v>385.8762648760996</v>
       </c>
       <c r="F18" t="n">
-        <v>261.4444587592314</v>
+        <v>261.4444587592313</v>
       </c>
       <c r="G18" t="n">
         <v>142.3126456741261</v>
       </c>
       <c r="H18" t="n">
-        <v>62.97780236399363</v>
+        <v>62.97780236399362</v>
       </c>
       <c r="I18" t="n">
         <v>45.54159231357217</v>
       </c>
       <c r="J18" t="n">
-        <v>49.85293171354718</v>
+        <v>244.5879266932746</v>
       </c>
       <c r="K18" t="n">
-        <v>516.4624455615682</v>
+        <v>711.1974405412956</v>
       </c>
       <c r="L18" t="n">
-        <v>1080.039650442024</v>
+        <v>914.3342100470288</v>
       </c>
       <c r="M18" t="n">
-        <v>1219.032470096551</v>
+        <v>1053.327029701556</v>
       </c>
       <c r="N18" t="n">
-        <v>1371.069635296526</v>
+        <v>1205.364194901531</v>
       </c>
       <c r="O18" t="n">
-        <v>1495.711071704161</v>
+        <v>1330.005631309166</v>
       </c>
       <c r="P18" t="n">
-        <v>1926.612854133285</v>
+        <v>1893.582836189622</v>
       </c>
       <c r="Q18" t="n">
-        <v>2277.079615678608</v>
+        <v>2244.049597734945</v>
       </c>
       <c r="R18" t="n">
         <v>2277.079615678608</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>681.5354981527428</v>
+        <v>506.9876911091185</v>
       </c>
       <c r="C19" t="n">
-        <v>681.5354981527428</v>
+        <v>506.9876911091185</v>
       </c>
       <c r="D19" t="n">
-        <v>525.9023850552576</v>
+        <v>506.9876911091185</v>
       </c>
       <c r="E19" t="n">
-        <v>370.3435729144601</v>
+        <v>351.428878968321</v>
       </c>
       <c r="F19" t="n">
-        <v>213.0176381274331</v>
+        <v>194.1029441812939</v>
       </c>
       <c r="G19" t="n">
-        <v>45.54159231357217</v>
+        <v>194.1029441812939</v>
       </c>
       <c r="H19" t="n">
         <v>45.54159231357217</v>
@@ -5697,28 +5697,28 @@
         <v>1673.155148576198</v>
       </c>
       <c r="R19" t="n">
-        <v>1584.236231906831</v>
+        <v>1673.155148576198</v>
       </c>
       <c r="S19" t="n">
-        <v>1394.978707200212</v>
+        <v>1515.555774642038</v>
       </c>
       <c r="T19" t="n">
-        <v>1394.978707200212</v>
+        <v>1515.555774642038</v>
       </c>
       <c r="U19" t="n">
-        <v>1109.582352246842</v>
+        <v>1230.159419688668</v>
       </c>
       <c r="V19" t="n">
-        <v>1109.582352246842</v>
+        <v>964.1800745094921</v>
       </c>
       <c r="W19" t="n">
-        <v>826.2519501780193</v>
+        <v>964.1800745094921</v>
       </c>
       <c r="X19" t="n">
-        <v>826.2519501780193</v>
+        <v>730.0997522924752</v>
       </c>
       <c r="Y19" t="n">
-        <v>681.5354981527428</v>
+        <v>506.9876911091185</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1679.358831662337</v>
+        <v>780.8749464151344</v>
       </c>
       <c r="C20" t="n">
-        <v>1679.358831662337</v>
+        <v>780.8749464151344</v>
       </c>
       <c r="D20" t="n">
-        <v>1582.768137759576</v>
+        <v>395.4338176318022</v>
       </c>
       <c r="E20" t="n">
-        <v>1180.184612876121</v>
+        <v>395.4338176318022</v>
       </c>
       <c r="F20" t="n">
-        <v>763.2901744060985</v>
+        <v>395.4338176318022</v>
       </c>
       <c r="G20" t="n">
         <v>351.8618544642544</v>
@@ -5755,49 +5755,49 @@
         <v>334.4699759803064</v>
       </c>
       <c r="K20" t="n">
-        <v>769.2991307742404</v>
+        <v>409.0783939874116</v>
       </c>
       <c r="L20" t="n">
-        <v>885.8436158473236</v>
+        <v>525.6228790604948</v>
       </c>
       <c r="M20" t="n">
-        <v>1449.420820727779</v>
+        <v>675.8862087611622</v>
       </c>
       <c r="N20" t="n">
-        <v>1605.114543644719</v>
+        <v>831.5799316781022</v>
       </c>
       <c r="O20" t="n">
-        <v>1743.463791430147</v>
+        <v>1345.084582111478</v>
       </c>
       <c r="P20" t="n">
-        <v>1839.116023033718</v>
+        <v>1908.661786991933</v>
       </c>
       <c r="Q20" t="n">
-        <v>2207.533851720393</v>
+        <v>2277.079615678608</v>
       </c>
       <c r="R20" t="n">
         <v>2277.079615678608</v>
       </c>
       <c r="S20" t="n">
-        <v>2277.079615678608</v>
+        <v>2150.089511174515</v>
       </c>
       <c r="T20" t="n">
-        <v>2277.079615678608</v>
+        <v>2150.089511174515</v>
       </c>
       <c r="U20" t="n">
-        <v>2021.465640958819</v>
+        <v>1894.475536454726</v>
       </c>
       <c r="V20" t="n">
-        <v>1679.358831662337</v>
+        <v>1552.368727158244</v>
       </c>
       <c r="W20" t="n">
-        <v>1679.358831662337</v>
+        <v>1181.369692126531</v>
       </c>
       <c r="X20" t="n">
-        <v>1679.358831662337</v>
+        <v>1181.369692126531</v>
       </c>
       <c r="Y20" t="n">
-        <v>1679.358831662337</v>
+        <v>1181.369692126531</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>803.0659535836398</v>
+        <v>803.0659535836394</v>
       </c>
       <c r="C21" t="n">
-        <v>652.411723143732</v>
+        <v>652.4117231437316</v>
       </c>
       <c r="D21" t="n">
-        <v>522.3227557652124</v>
+        <v>522.3227557652119</v>
       </c>
       <c r="E21" t="n">
-        <v>385.8762648761001</v>
+        <v>385.8762648760996</v>
       </c>
       <c r="F21" t="n">
-        <v>261.4444587592319</v>
+        <v>261.4444587592314</v>
       </c>
       <c r="G21" t="n">
-        <v>142.3126456741267</v>
+        <v>142.3126456741261</v>
       </c>
       <c r="H21" t="n">
-        <v>62.97780236399416</v>
+        <v>62.97780236399363</v>
       </c>
       <c r="I21" t="n">
         <v>45.54159231357217</v>
@@ -5837,19 +5837,19 @@
         <v>711.1974405412956</v>
       </c>
       <c r="L21" t="n">
-        <v>819.5230315700842</v>
+        <v>947.3642279906919</v>
       </c>
       <c r="M21" t="n">
-        <v>958.5158512246114</v>
+        <v>1086.357047645219</v>
       </c>
       <c r="N21" t="n">
-        <v>1110.553016424587</v>
+        <v>1238.394212845194</v>
       </c>
       <c r="O21" t="n">
-        <v>1674.130221305042</v>
+        <v>1363.035649252829</v>
       </c>
       <c r="P21" t="n">
-        <v>2237.707426185498</v>
+        <v>1926.612854133285</v>
       </c>
       <c r="Q21" t="n">
         <v>2277.079615678608</v>
@@ -5873,10 +5873,10 @@
         <v>1323.483582599082</v>
       </c>
       <c r="X21" t="n">
-        <v>1134.176504949094</v>
+        <v>1134.176504949093</v>
       </c>
       <c r="Y21" t="n">
-        <v>954.8622880246012</v>
+        <v>954.8622880246007</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1023.085172568922</v>
+        <v>182.7163639898455</v>
       </c>
       <c r="C22" t="n">
-        <v>852.8800546349107</v>
+        <v>182.7163639898455</v>
       </c>
       <c r="D22" t="n">
-        <v>852.8800546349107</v>
+        <v>182.7163639898455</v>
       </c>
       <c r="E22" t="n">
-        <v>852.8800546349107</v>
+        <v>45.54159231357217</v>
       </c>
       <c r="F22" t="n">
-        <v>852.8800546349107</v>
+        <v>45.54159231357217</v>
       </c>
       <c r="G22" t="n">
-        <v>685.4040088210497</v>
+        <v>45.54159231357217</v>
       </c>
       <c r="H22" t="n">
-        <v>649.4660594159824</v>
+        <v>45.54159231357217</v>
       </c>
       <c r="I22" t="n">
-        <v>649.4660594159824</v>
+        <v>45.54159231357217</v>
       </c>
       <c r="J22" t="n">
-        <v>673.6028856303657</v>
+        <v>69.67841852795547</v>
       </c>
       <c r="K22" t="n">
-        <v>844.0295519704823</v>
+        <v>240.1050848680721</v>
       </c>
       <c r="L22" t="n">
-        <v>1121.523971109875</v>
+        <v>517.5995040074649</v>
       </c>
       <c r="M22" t="n">
-        <v>1427.344922988351</v>
+        <v>823.4204558859406</v>
       </c>
       <c r="N22" t="n">
-        <v>1727.221789218272</v>
+        <v>1123.297322115861</v>
       </c>
       <c r="O22" t="n">
-        <v>1997.706101571307</v>
+        <v>1393.781634468896</v>
       </c>
       <c r="P22" t="n">
-        <v>2209.806287853538</v>
+        <v>1605.881820751128</v>
       </c>
       <c r="Q22" t="n">
-        <v>2277.079615678608</v>
+        <v>1673.155148576198</v>
       </c>
       <c r="R22" t="n">
-        <v>2277.079615678608</v>
+        <v>1673.155148576198</v>
       </c>
       <c r="S22" t="n">
-        <v>2277.079615678608</v>
+        <v>1483.897623869579</v>
       </c>
       <c r="T22" t="n">
-        <v>2277.079615678608</v>
+        <v>1251.502788408231</v>
       </c>
       <c r="U22" t="n">
-        <v>1991.683260725238</v>
+        <v>966.1064334548605</v>
       </c>
       <c r="V22" t="n">
-        <v>1725.703915546062</v>
+        <v>700.1270882756847</v>
       </c>
       <c r="W22" t="n">
-        <v>1442.37351347724</v>
+        <v>416.7966862068624</v>
       </c>
       <c r="X22" t="n">
-        <v>1208.293191260223</v>
+        <v>182.7163639898455</v>
       </c>
       <c r="Y22" t="n">
-        <v>1208.293191260223</v>
+        <v>182.7163639898455</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>816.5076455505441</v>
+        <v>1480.094160887812</v>
       </c>
       <c r="C23" t="n">
-        <v>423.3321440534747</v>
+        <v>1086.918659390743</v>
       </c>
       <c r="D23" t="n">
-        <v>423.3321440534747</v>
+        <v>1086.918659390743</v>
       </c>
       <c r="E23" t="n">
-        <v>423.3321440534747</v>
+        <v>873.8643507254385</v>
       </c>
       <c r="F23" t="n">
-        <v>423.3321440534747</v>
+        <v>456.9699122554162</v>
       </c>
       <c r="G23" t="n">
-        <v>423.3321440534747</v>
+        <v>45.54159231357217</v>
       </c>
       <c r="H23" t="n">
-        <v>117.0118819027925</v>
+        <v>45.54159231357217</v>
       </c>
       <c r="I23" t="n">
         <v>45.54159231357217</v>
@@ -5992,25 +5992,25 @@
         <v>334.4699759803064</v>
       </c>
       <c r="K23" t="n">
-        <v>784.2337966353588</v>
+        <v>409.0783939874116</v>
       </c>
       <c r="L23" t="n">
-        <v>900.7782817084419</v>
+        <v>525.6228790604948</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.041611409109</v>
+        <v>675.8862087611622</v>
       </c>
       <c r="N23" t="n">
-        <v>1206.735334326049</v>
+        <v>1239.463413641618</v>
       </c>
       <c r="O23" t="n">
-        <v>1345.084582111478</v>
+        <v>1377.812661427046</v>
       </c>
       <c r="P23" t="n">
-        <v>1908.661786991933</v>
+        <v>1839.116023033718</v>
       </c>
       <c r="Q23" t="n">
-        <v>2277.079615678608</v>
+        <v>2207.533851720393</v>
       </c>
       <c r="R23" t="n">
         <v>2277.079615678608</v>
@@ -6028,13 +6028,13 @@
         <v>2277.079615678608</v>
       </c>
       <c r="W23" t="n">
-        <v>2002.945705408283</v>
+        <v>2277.079615678608</v>
       </c>
       <c r="X23" t="n">
-        <v>1613.49310034134</v>
+        <v>2277.079615678608</v>
       </c>
       <c r="Y23" t="n">
-        <v>1217.002391261941</v>
+        <v>1880.588906599209</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>142.3126456741261</v>
       </c>
       <c r="H24" t="n">
-        <v>62.97780236399364</v>
+        <v>62.97780236399362</v>
       </c>
       <c r="I24" t="n">
         <v>45.54159231357217</v>
       </c>
       <c r="J24" t="n">
-        <v>192.4465813140959</v>
+        <v>244.5879266932746</v>
       </c>
       <c r="K24" t="n">
-        <v>250.6159831198904</v>
+        <v>711.1974405412956</v>
       </c>
       <c r="L24" t="n">
-        <v>814.1931880003459</v>
+        <v>978.9021270048677</v>
       </c>
       <c r="M24" t="n">
-        <v>1377.770392880801</v>
+        <v>1117.894946659395</v>
       </c>
       <c r="N24" t="n">
-        <v>1529.807558080777</v>
+        <v>1681.47215153985</v>
       </c>
       <c r="O24" t="n">
-        <v>1654.448994488412</v>
+        <v>1806.113587947485</v>
       </c>
       <c r="P24" t="n">
-        <v>2218.026199368867</v>
+        <v>1893.582836189622</v>
       </c>
       <c r="Q24" t="n">
         <v>2244.049597734945</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.1613372787907</v>
+        <v>371.3055223883804</v>
       </c>
       <c r="C25" t="n">
-        <v>784.1613372787907</v>
+        <v>201.1004044543697</v>
       </c>
       <c r="D25" t="n">
-        <v>784.1613372787907</v>
+        <v>201.1004044543697</v>
       </c>
       <c r="E25" t="n">
-        <v>628.6025251379932</v>
+        <v>45.54159231357217</v>
       </c>
       <c r="F25" t="n">
-        <v>471.2765903509662</v>
+        <v>45.54159231357217</v>
       </c>
       <c r="G25" t="n">
-        <v>303.8005445371052</v>
+        <v>45.54159231357217</v>
       </c>
       <c r="H25" t="n">
-        <v>155.2391926693834</v>
+        <v>45.54159231357217</v>
       </c>
       <c r="I25" t="n">
         <v>45.54159231357217</v>
@@ -6180,19 +6180,19 @@
         <v>1673.155148576198</v>
       </c>
       <c r="U25" t="n">
-        <v>1524.684122747987</v>
+        <v>1387.758793622827</v>
       </c>
       <c r="V25" t="n">
-        <v>1524.684122747987</v>
+        <v>1121.779448443652</v>
       </c>
       <c r="W25" t="n">
-        <v>1241.353720679164</v>
+        <v>838.4490463748293</v>
       </c>
       <c r="X25" t="n">
-        <v>1007.273398462147</v>
+        <v>604.3687241578124</v>
       </c>
       <c r="Y25" t="n">
-        <v>784.1613372787907</v>
+        <v>381.2566629744557</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1090.64155582087</v>
+        <v>1276.447875608894</v>
       </c>
       <c r="C26" t="n">
-        <v>697.4660543238006</v>
+        <v>1276.447875608894</v>
       </c>
       <c r="D26" t="n">
-        <v>312.0249255404683</v>
+        <v>1276.447875608894</v>
       </c>
       <c r="E26" t="n">
-        <v>312.0249255404683</v>
+        <v>873.8643507254385</v>
       </c>
       <c r="F26" t="n">
-        <v>312.0249255404683</v>
+        <v>456.9699122554163</v>
       </c>
       <c r="G26" t="n">
-        <v>312.0249255404683</v>
+        <v>45.54159231357218</v>
       </c>
       <c r="H26" t="n">
         <v>45.54159231357218</v>
@@ -6229,19 +6229,19 @@
         <v>334.4699759803065</v>
       </c>
       <c r="K26" t="n">
-        <v>898.0471808607622</v>
+        <v>409.0783939874117</v>
       </c>
       <c r="L26" t="n">
-        <v>1014.591665933845</v>
+        <v>525.6228790604948</v>
       </c>
       <c r="M26" t="n">
-        <v>1164.854995634513</v>
+        <v>675.8862087611622</v>
       </c>
       <c r="N26" t="n">
-        <v>1320.548718551453</v>
+        <v>831.5799316781022</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.897966336881</v>
+        <v>1275.538818153263</v>
       </c>
       <c r="P26" t="n">
         <v>1839.116023033719</v>
@@ -6256,22 +6256,22 @@
         <v>2277.079615678609</v>
       </c>
       <c r="T26" t="n">
-        <v>2277.079615678609</v>
+        <v>2073.43333039969</v>
       </c>
       <c r="U26" t="n">
-        <v>2277.079615678609</v>
+        <v>2073.43333039969</v>
       </c>
       <c r="V26" t="n">
-        <v>2277.079615678609</v>
+        <v>2073.43333039969</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.079615678609</v>
+        <v>2073.43333039969</v>
       </c>
       <c r="X26" t="n">
-        <v>1887.627010611666</v>
+        <v>2073.43333039969</v>
       </c>
       <c r="Y26" t="n">
-        <v>1491.136301532267</v>
+        <v>1676.942621320291</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>45.54159231357218</v>
       </c>
       <c r="J27" t="n">
-        <v>49.85293171354719</v>
+        <v>244.5879266932746</v>
       </c>
       <c r="K27" t="n">
-        <v>516.4624455615682</v>
+        <v>711.1974405412956</v>
       </c>
       <c r="L27" t="n">
-        <v>799.8418047534543</v>
+        <v>914.3342100470297</v>
       </c>
       <c r="M27" t="n">
-        <v>938.8346244079816</v>
+        <v>1053.327029701557</v>
       </c>
       <c r="N27" t="n">
-        <v>1090.871789607957</v>
+        <v>1205.364194901532</v>
       </c>
       <c r="O27" t="n">
-        <v>1654.448994488413</v>
+        <v>1330.005631309167</v>
       </c>
       <c r="P27" t="n">
-        <v>2218.026199368868</v>
+        <v>1893.582836189623</v>
       </c>
       <c r="Q27" t="n">
         <v>2244.049597734946</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1000.301967954475</v>
+        <v>729.9628481560849</v>
       </c>
       <c r="C28" t="n">
-        <v>830.0968500204647</v>
+        <v>729.9628481560849</v>
       </c>
       <c r="D28" t="n">
-        <v>674.4637369229795</v>
+        <v>574.3297350585997</v>
       </c>
       <c r="E28" t="n">
-        <v>518.904924782182</v>
+        <v>418.7709229178022</v>
       </c>
       <c r="F28" t="n">
-        <v>361.5789899951549</v>
+        <v>418.7709229178022</v>
       </c>
       <c r="G28" t="n">
-        <v>194.1029441812939</v>
+        <v>303.8005445371052</v>
       </c>
       <c r="H28" t="n">
-        <v>45.54159231357218</v>
+        <v>155.2391926693834</v>
       </c>
       <c r="I28" t="n">
         <v>45.54159231357218</v>
@@ -6411,25 +6411,25 @@
         <v>1673.155148576198</v>
       </c>
       <c r="S28" t="n">
-        <v>1673.155148576198</v>
+        <v>1483.897623869579</v>
       </c>
       <c r="T28" t="n">
-        <v>1440.76031311485</v>
+        <v>1483.897623869579</v>
       </c>
       <c r="U28" t="n">
-        <v>1440.76031311485</v>
+        <v>1198.501268916209</v>
       </c>
       <c r="V28" t="n">
-        <v>1174.780967935674</v>
+        <v>1198.501268916209</v>
       </c>
       <c r="W28" t="n">
-        <v>1174.780967935674</v>
+        <v>915.1708668473862</v>
       </c>
       <c r="X28" t="n">
-        <v>1174.780967935674</v>
+        <v>915.1708668473862</v>
       </c>
       <c r="Y28" t="n">
-        <v>1174.780967935674</v>
+        <v>915.1708668473862</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>965.4615813942928</v>
+        <v>1171.339817817732</v>
       </c>
       <c r="C29" t="n">
-        <v>965.4615813942928</v>
+        <v>1171.339817817732</v>
       </c>
       <c r="D29" t="n">
-        <v>865.0195556670499</v>
+        <v>1171.339817817732</v>
       </c>
       <c r="E29" t="n">
-        <v>462.4360307835944</v>
+        <v>768.7562929342766</v>
       </c>
       <c r="F29" t="n">
-        <v>45.54159231357218</v>
+        <v>351.8618544642544</v>
       </c>
       <c r="G29" t="n">
-        <v>45.54159231357218</v>
+        <v>351.8618544642544</v>
       </c>
       <c r="H29" t="n">
         <v>45.54159231357218</v>
@@ -6463,52 +6463,52 @@
         <v>45.54159231357218</v>
       </c>
       <c r="J29" t="n">
-        <v>334.4699759803065</v>
+        <v>73.31716350855572</v>
       </c>
       <c r="K29" t="n">
-        <v>898.0471808607622</v>
+        <v>147.925581515661</v>
       </c>
       <c r="L29" t="n">
-        <v>1014.591665933845</v>
+        <v>711.5027863961167</v>
       </c>
       <c r="M29" t="n">
-        <v>1164.854995634513</v>
+        <v>1275.079991276572</v>
       </c>
       <c r="N29" t="n">
-        <v>1320.548718551453</v>
+        <v>1838.657196157028</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.897966336881</v>
+        <v>2140.908826963521</v>
       </c>
       <c r="P29" t="n">
-        <v>1839.116023033719</v>
+        <v>2236.561058567091</v>
       </c>
       <c r="Q29" t="n">
-        <v>2207.533851720394</v>
+        <v>2277.079615678609</v>
       </c>
       <c r="R29" t="n">
         <v>2277.079615678609</v>
       </c>
       <c r="S29" t="n">
-        <v>2150.089511174516</v>
+        <v>2277.079615678609</v>
       </c>
       <c r="T29" t="n">
-        <v>1934.181400442276</v>
+        <v>2061.17150494637</v>
       </c>
       <c r="U29" t="n">
-        <v>1678.567425722487</v>
+        <v>1902.899232181157</v>
       </c>
       <c r="V29" t="n">
-        <v>1336.460616426005</v>
+        <v>1560.792422884675</v>
       </c>
       <c r="W29" t="n">
-        <v>965.4615813942928</v>
+        <v>1560.792422884675</v>
       </c>
       <c r="X29" t="n">
-        <v>965.4615813942928</v>
+        <v>1171.339817817732</v>
       </c>
       <c r="Y29" t="n">
-        <v>965.4615813942928</v>
+        <v>1171.339817817732</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>261.4444587592322</v>
       </c>
       <c r="G30" t="n">
-        <v>142.3126456741267</v>
+        <v>142.312645674127</v>
       </c>
       <c r="H30" t="n">
         <v>62.97780236399421</v>
@@ -6545,22 +6545,22 @@
         <v>49.85293171354719</v>
       </c>
       <c r="K30" t="n">
-        <v>516.4624455615682</v>
+        <v>108.0223335193417</v>
       </c>
       <c r="L30" t="n">
-        <v>624.7880365903568</v>
+        <v>671.5995383997974</v>
       </c>
       <c r="M30" t="n">
-        <v>763.780856244884</v>
+        <v>1036.432559309484</v>
       </c>
       <c r="N30" t="n">
-        <v>1238.394212845195</v>
+        <v>1600.009764189939</v>
       </c>
       <c r="O30" t="n">
-        <v>1363.03564925283</v>
+        <v>2163.586969070395</v>
       </c>
       <c r="P30" t="n">
-        <v>1926.612854133286</v>
+        <v>2251.056217312531</v>
       </c>
       <c r="Q30" t="n">
         <v>2277.079615678609</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1065.952456564742</v>
+        <v>780.8984147635592</v>
       </c>
       <c r="C31" t="n">
-        <v>895.7473386307308</v>
+        <v>610.6932968295484</v>
       </c>
       <c r="D31" t="n">
-        <v>740.1142255332456</v>
+        <v>610.6932968295484</v>
       </c>
       <c r="E31" t="n">
-        <v>740.1142255332456</v>
+        <v>455.1344846887509</v>
       </c>
       <c r="F31" t="n">
-        <v>740.1142255332456</v>
+        <v>297.8085499017239</v>
       </c>
       <c r="G31" t="n">
-        <v>649.4660594159833</v>
+        <v>130.332504087863</v>
       </c>
       <c r="H31" t="n">
-        <v>649.4660594159833</v>
+        <v>45.54159231357218</v>
       </c>
       <c r="I31" t="n">
-        <v>649.4660594159833</v>
+        <v>45.54159231357218</v>
       </c>
       <c r="J31" t="n">
-        <v>673.6028856303666</v>
+        <v>69.67841852795547</v>
       </c>
       <c r="K31" t="n">
-        <v>844.0295519704832</v>
+        <v>240.1050848680721</v>
       </c>
       <c r="L31" t="n">
-        <v>1121.523971109876</v>
+        <v>517.5995040074649</v>
       </c>
       <c r="M31" t="n">
-        <v>1427.344922988352</v>
+        <v>823.4204558859406</v>
       </c>
       <c r="N31" t="n">
-        <v>1727.221789218273</v>
+        <v>1123.297322115861</v>
       </c>
       <c r="O31" t="n">
-        <v>1997.706101571308</v>
+        <v>1393.781634468896</v>
       </c>
       <c r="P31" t="n">
-        <v>2209.806287853539</v>
+        <v>1605.881820751128</v>
       </c>
       <c r="Q31" t="n">
-        <v>2277.079615678609</v>
+        <v>1673.155148576198</v>
       </c>
       <c r="R31" t="n">
-        <v>2277.079615678609</v>
+        <v>1673.155148576198</v>
       </c>
       <c r="S31" t="n">
-        <v>2277.079615678609</v>
+        <v>1483.897623869579</v>
       </c>
       <c r="T31" t="n">
-        <v>2277.079615678609</v>
+        <v>1251.502788408231</v>
       </c>
       <c r="U31" t="n">
-        <v>1991.683260725239</v>
+        <v>966.1064334548605</v>
       </c>
       <c r="V31" t="n">
-        <v>1991.683260725239</v>
+        <v>966.1064334548605</v>
       </c>
       <c r="W31" t="n">
-        <v>1708.352858656416</v>
+        <v>966.1064334548605</v>
       </c>
       <c r="X31" t="n">
-        <v>1474.2725364394</v>
+        <v>966.1064334548605</v>
       </c>
       <c r="Y31" t="n">
-        <v>1251.160475256043</v>
+        <v>966.1064334548605</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>117.0118819027925</v>
+        <v>1250.460684450382</v>
       </c>
       <c r="C32" t="n">
-        <v>117.0118819027925</v>
+        <v>1250.460684450382</v>
       </c>
       <c r="D32" t="n">
-        <v>117.0118819027925</v>
+        <v>865.0195556670499</v>
       </c>
       <c r="E32" t="n">
-        <v>117.0118819027925</v>
+        <v>462.4360307835944</v>
       </c>
       <c r="F32" t="n">
-        <v>117.0118819027925</v>
+        <v>45.54159231357218</v>
       </c>
       <c r="G32" t="n">
-        <v>117.0118819027925</v>
+        <v>45.54159231357218</v>
       </c>
       <c r="H32" t="n">
-        <v>117.0118819027925</v>
+        <v>45.54159231357218</v>
       </c>
       <c r="I32" t="n">
         <v>45.54159231357218</v>
@@ -6703,25 +6703,25 @@
         <v>334.4699759803065</v>
       </c>
       <c r="K32" t="n">
-        <v>409.0783939874117</v>
+        <v>898.0471808607622</v>
       </c>
       <c r="L32" t="n">
-        <v>525.6228790604948</v>
+        <v>1461.624385741218</v>
       </c>
       <c r="M32" t="n">
-        <v>1089.200083940951</v>
+        <v>1611.887715441885</v>
       </c>
       <c r="N32" t="n">
-        <v>1605.11454364472</v>
+        <v>1767.581438358825</v>
       </c>
       <c r="O32" t="n">
-        <v>1743.463791430148</v>
+        <v>1905.930686144254</v>
       </c>
       <c r="P32" t="n">
-        <v>1839.116023033719</v>
+        <v>2001.582917747824</v>
       </c>
       <c r="Q32" t="n">
-        <v>2207.533851720394</v>
+        <v>2277.079615678609</v>
       </c>
       <c r="R32" t="n">
         <v>2277.079615678609</v>
@@ -6733,19 +6733,19 @@
         <v>1934.181400442276</v>
       </c>
       <c r="U32" t="n">
-        <v>1678.567425722487</v>
+        <v>1934.181400442276</v>
       </c>
       <c r="V32" t="n">
-        <v>1336.460616426005</v>
+        <v>1934.181400442276</v>
       </c>
       <c r="W32" t="n">
-        <v>965.4615813942928</v>
+        <v>1934.181400442276</v>
       </c>
       <c r="X32" t="n">
-        <v>576.0089763273496</v>
+        <v>1544.728795375333</v>
       </c>
       <c r="Y32" t="n">
-        <v>179.5182672479507</v>
+        <v>1250.460684450382</v>
       </c>
     </row>
     <row r="33">
@@ -6785,16 +6785,16 @@
         <v>711.1974405412956</v>
       </c>
       <c r="L33" t="n">
-        <v>1274.774645421751</v>
+        <v>914.3342100470297</v>
       </c>
       <c r="M33" t="n">
-        <v>1413.767465076279</v>
+        <v>1053.327029701557</v>
       </c>
       <c r="N33" t="n">
-        <v>1565.804630276254</v>
+        <v>1205.364194901532</v>
       </c>
       <c r="O33" t="n">
-        <v>1806.113587947486</v>
+        <v>1330.005631309167</v>
       </c>
       <c r="P33" t="n">
         <v>1893.582836189623</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>636.636235841677</v>
+        <v>415.1111994511936</v>
       </c>
       <c r="C34" t="n">
-        <v>466.4311179076662</v>
+        <v>244.9060815171828</v>
       </c>
       <c r="D34" t="n">
-        <v>310.7980048101809</v>
+        <v>244.9060815171828</v>
       </c>
       <c r="E34" t="n">
-        <v>155.2391926693834</v>
+        <v>244.9060815171828</v>
       </c>
       <c r="F34" t="n">
-        <v>155.2391926693834</v>
+        <v>244.9060815171828</v>
       </c>
       <c r="G34" t="n">
         <v>155.2391926693834</v>
@@ -6885,25 +6885,25 @@
         <v>1673.155148576198</v>
       </c>
       <c r="S34" t="n">
-        <v>1673.155148576198</v>
+        <v>1483.897623869579</v>
       </c>
       <c r="T34" t="n">
-        <v>1673.155148576198</v>
+        <v>1483.897623869579</v>
       </c>
       <c r="U34" t="n">
-        <v>1387.758793622827</v>
+        <v>1198.501268916209</v>
       </c>
       <c r="V34" t="n">
-        <v>1121.779448443652</v>
+        <v>932.5219237370328</v>
       </c>
       <c r="W34" t="n">
-        <v>1044.956315716335</v>
+        <v>649.1915216682105</v>
       </c>
       <c r="X34" t="n">
-        <v>1044.956315716335</v>
+        <v>415.1111994511936</v>
       </c>
       <c r="Y34" t="n">
-        <v>821.8442545329783</v>
+        <v>415.1111994511936</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1018.035351099694</v>
+        <v>1805.55753022658</v>
       </c>
       <c r="C35" t="n">
-        <v>808.773272836807</v>
+        <v>1805.55753022658</v>
       </c>
       <c r="D35" t="n">
-        <v>423.3321440534747</v>
+        <v>1420.116401443248</v>
       </c>
       <c r="E35" t="n">
-        <v>423.3321440534747</v>
+        <v>1017.532876559793</v>
       </c>
       <c r="F35" t="n">
-        <v>423.3321440534747</v>
+        <v>600.6384380897704</v>
       </c>
       <c r="G35" t="n">
         <v>423.3321440534747</v>
@@ -6937,25 +6937,25 @@
         <v>45.54159231357218</v>
       </c>
       <c r="J35" t="n">
-        <v>73.31716350855572</v>
+        <v>334.4699759803065</v>
       </c>
       <c r="K35" t="n">
-        <v>636.8943683890114</v>
+        <v>898.0471808607622</v>
       </c>
       <c r="L35" t="n">
-        <v>753.4388534620946</v>
+        <v>1014.591665933845</v>
       </c>
       <c r="M35" t="n">
-        <v>903.7021831627619</v>
+        <v>1164.854995634513</v>
       </c>
       <c r="N35" t="n">
-        <v>1059.395906079702</v>
+        <v>1320.548718551453</v>
       </c>
       <c r="O35" t="n">
-        <v>1345.084582111479</v>
+        <v>1458.897966336881</v>
       </c>
       <c r="P35" t="n">
-        <v>1908.661786991934</v>
+        <v>2022.475171217337</v>
       </c>
       <c r="Q35" t="n">
         <v>2277.079615678609</v>
@@ -6964,25 +6964,25 @@
         <v>2277.079615678609</v>
       </c>
       <c r="S35" t="n">
-        <v>2150.089511174516</v>
+        <v>2277.079615678609</v>
       </c>
       <c r="T35" t="n">
-        <v>2150.089511174516</v>
+        <v>2061.17150494637</v>
       </c>
       <c r="U35" t="n">
-        <v>2150.089511174516</v>
+        <v>1805.55753022658</v>
       </c>
       <c r="V35" t="n">
-        <v>1807.982701878034</v>
+        <v>1805.55753022658</v>
       </c>
       <c r="W35" t="n">
-        <v>1807.982701878034</v>
+        <v>1805.55753022658</v>
       </c>
       <c r="X35" t="n">
-        <v>1418.530096811091</v>
+        <v>1805.55753022658</v>
       </c>
       <c r="Y35" t="n">
-        <v>1418.530096811091</v>
+        <v>1805.55753022658</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>803.0659535836407</v>
+        <v>803.0659535836394</v>
       </c>
       <c r="C36" t="n">
-        <v>652.411723143733</v>
+        <v>652.4117231437316</v>
       </c>
       <c r="D36" t="n">
-        <v>522.3227557652133</v>
+        <v>522.3227557652119</v>
       </c>
       <c r="E36" t="n">
-        <v>385.876264876101</v>
+        <v>385.8762648760996</v>
       </c>
       <c r="F36" t="n">
-        <v>261.4444587592328</v>
+        <v>261.4444587592314</v>
       </c>
       <c r="G36" t="n">
-        <v>142.3126456741276</v>
+        <v>142.3126456741261</v>
       </c>
       <c r="H36" t="n">
-        <v>62.97780236399507</v>
+        <v>62.97780236399365</v>
       </c>
       <c r="I36" t="n">
         <v>45.54159231357218</v>
@@ -7019,16 +7019,16 @@
         <v>244.5879266932746</v>
       </c>
       <c r="K36" t="n">
-        <v>302.7573284990692</v>
+        <v>711.1974405412956</v>
       </c>
       <c r="L36" t="n">
-        <v>866.3345333795248</v>
+        <v>947.3642279906928</v>
       </c>
       <c r="M36" t="n">
-        <v>1005.327353034052</v>
+        <v>1086.35704764522</v>
       </c>
       <c r="N36" t="n">
-        <v>1157.364518234027</v>
+        <v>1238.394212845195</v>
       </c>
       <c r="O36" t="n">
         <v>1363.03564925283</v>
@@ -7043,25 +7043,25 @@
         <v>2277.079615678609</v>
       </c>
       <c r="S36" t="n">
-        <v>2159.386221518098</v>
+        <v>2159.386221518097</v>
       </c>
       <c r="T36" t="n">
-        <v>1986.142920465888</v>
+        <v>1986.142920465887</v>
       </c>
       <c r="U36" t="n">
-        <v>1776.140830094729</v>
+        <v>1776.140830094728</v>
       </c>
       <c r="V36" t="n">
-        <v>1553.600828465796</v>
+        <v>1553.600828465795</v>
       </c>
       <c r="W36" t="n">
-        <v>1323.483582599083</v>
+        <v>1323.483582599082</v>
       </c>
       <c r="X36" t="n">
-        <v>1134.176504949095</v>
+        <v>1134.176504949093</v>
       </c>
       <c r="Y36" t="n">
-        <v>954.8622880246021</v>
+        <v>954.8622880246007</v>
       </c>
     </row>
     <row r="37">
@@ -7125,22 +7125,22 @@
         <v>1483.897623869579</v>
       </c>
       <c r="T37" t="n">
-        <v>1483.897623869579</v>
+        <v>1251.502788408231</v>
       </c>
       <c r="U37" t="n">
-        <v>1198.501268916209</v>
+        <v>966.1064334548605</v>
       </c>
       <c r="V37" t="n">
-        <v>932.5219237370328</v>
+        <v>786.0643777827681</v>
       </c>
       <c r="W37" t="n">
-        <v>649.1915216682105</v>
+        <v>502.7339757139457</v>
       </c>
       <c r="X37" t="n">
-        <v>415.1111994511936</v>
+        <v>268.6536534969288</v>
       </c>
       <c r="Y37" t="n">
-        <v>191.9991382678369</v>
+        <v>45.54159231357218</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>179.5182672479507</v>
+        <v>702.9990808314429</v>
       </c>
       <c r="C38" t="n">
-        <v>179.5182672479507</v>
+        <v>702.9990808314429</v>
       </c>
       <c r="D38" t="n">
-        <v>179.5182672479507</v>
+        <v>702.9990808314429</v>
       </c>
       <c r="E38" t="n">
-        <v>45.54159231357218</v>
+        <v>702.9990808314429</v>
       </c>
       <c r="F38" t="n">
-        <v>45.54159231357218</v>
+        <v>702.9990808314429</v>
       </c>
       <c r="G38" t="n">
-        <v>45.54159231357218</v>
+        <v>351.8618544642544</v>
       </c>
       <c r="H38" t="n">
         <v>45.54159231357218</v>
@@ -7186,13 +7186,13 @@
         <v>675.8862087611622</v>
       </c>
       <c r="N38" t="n">
-        <v>1239.463413641618</v>
+        <v>831.5799316781022</v>
       </c>
       <c r="O38" t="n">
-        <v>1377.812661427046</v>
+        <v>1395.157136558558</v>
       </c>
       <c r="P38" t="n">
-        <v>1941.389866307502</v>
+        <v>1839.116023033719</v>
       </c>
       <c r="Q38" t="n">
         <v>2207.533851720394</v>
@@ -7201,25 +7201,25 @@
         <v>2277.079615678609</v>
       </c>
       <c r="S38" t="n">
-        <v>2150.089511174516</v>
+        <v>2277.079615678609</v>
       </c>
       <c r="T38" t="n">
-        <v>1934.181400442276</v>
+        <v>2061.17150494637</v>
       </c>
       <c r="U38" t="n">
-        <v>1678.567425722487</v>
+        <v>1805.55753022658</v>
       </c>
       <c r="V38" t="n">
-        <v>1336.460616426005</v>
+        <v>1463.450720930099</v>
       </c>
       <c r="W38" t="n">
-        <v>965.4615813942928</v>
+        <v>1092.451685898386</v>
       </c>
       <c r="X38" t="n">
-        <v>576.0089763273496</v>
+        <v>702.9990808314429</v>
       </c>
       <c r="Y38" t="n">
-        <v>179.5182672479507</v>
+        <v>702.9990808314429</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>45.54159231357218</v>
       </c>
       <c r="J39" t="n">
-        <v>49.85293171354719</v>
+        <v>244.5879266932746</v>
       </c>
       <c r="K39" t="n">
-        <v>320.8181892290525</v>
+        <v>711.1974405412956</v>
       </c>
       <c r="L39" t="n">
-        <v>884.3953941095082</v>
+        <v>1274.774645421751</v>
       </c>
       <c r="M39" t="n">
-        <v>1447.972598989964</v>
+        <v>1413.767465076279</v>
       </c>
       <c r="N39" t="n">
-        <v>1600.009764189939</v>
+        <v>1565.804630276254</v>
       </c>
       <c r="O39" t="n">
-        <v>2163.586969070395</v>
+        <v>1690.446066683889</v>
       </c>
       <c r="P39" t="n">
-        <v>2251.056217312531</v>
+        <v>1893.582836189623</v>
       </c>
       <c r="Q39" t="n">
-        <v>2277.079615678609</v>
+        <v>2244.049597734946</v>
       </c>
       <c r="R39" t="n">
         <v>2277.079615678609</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>954.4407561694893</v>
+        <v>240.8714417935525</v>
       </c>
       <c r="C40" t="n">
-        <v>784.2356382354785</v>
+        <v>70.66632385954176</v>
       </c>
       <c r="D40" t="n">
-        <v>628.6025251379932</v>
+        <v>70.66632385954176</v>
       </c>
       <c r="E40" t="n">
-        <v>628.6025251379932</v>
+        <v>70.66632385954176</v>
       </c>
       <c r="F40" t="n">
-        <v>471.2765903509662</v>
+        <v>70.66632385954176</v>
       </c>
       <c r="G40" t="n">
-        <v>303.8005445371052</v>
+        <v>45.54159231357218</v>
       </c>
       <c r="H40" t="n">
-        <v>155.2391926693834</v>
+        <v>45.54159231357218</v>
       </c>
       <c r="I40" t="n">
         <v>45.54159231357218</v>
@@ -7356,28 +7356,28 @@
         <v>1673.155148576198</v>
       </c>
       <c r="R40" t="n">
-        <v>1584.236231906831</v>
+        <v>1673.155148576198</v>
       </c>
       <c r="S40" t="n">
-        <v>1584.236231906831</v>
+        <v>1483.897623869579</v>
       </c>
       <c r="T40" t="n">
-        <v>1584.236231906831</v>
+        <v>1483.897623869579</v>
       </c>
       <c r="U40" t="n">
-        <v>1373.729097077807</v>
+        <v>1198.501268916209</v>
       </c>
       <c r="V40" t="n">
-        <v>1373.729097077807</v>
+        <v>932.5219237370328</v>
       </c>
       <c r="W40" t="n">
-        <v>1373.729097077807</v>
+        <v>649.1915216682105</v>
       </c>
       <c r="X40" t="n">
-        <v>1139.648774860791</v>
+        <v>649.1915216682105</v>
       </c>
       <c r="Y40" t="n">
-        <v>1139.648774860791</v>
+        <v>426.0794604848538</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1048.431339640021</v>
+        <v>1254.714863097969</v>
       </c>
       <c r="C41" t="n">
-        <v>655.2558381429515</v>
+        <v>861.5393616008995</v>
       </c>
       <c r="D41" t="n">
-        <v>655.2558381429515</v>
+        <v>861.5393616008995</v>
       </c>
       <c r="E41" t="n">
-        <v>252.672313259496</v>
+        <v>861.5393616008995</v>
       </c>
       <c r="F41" t="n">
-        <v>252.672313259496</v>
+        <v>444.6449231308773</v>
       </c>
       <c r="G41" t="n">
-        <v>252.672313259496</v>
+        <v>33.21660318903319</v>
       </c>
       <c r="H41" t="n">
-        <v>104.6868927782535</v>
+        <v>33.21660318903319</v>
       </c>
       <c r="I41" t="n">
         <v>33.21660318903319</v>
       </c>
       <c r="J41" t="n">
-        <v>266.7899162869874</v>
+        <v>60.99217438401674</v>
       </c>
       <c r="K41" t="n">
-        <v>341.3983342940926</v>
+        <v>363.2030970064378</v>
       </c>
       <c r="L41" t="n">
-        <v>752.4537987583783</v>
+        <v>479.747582079521</v>
       </c>
       <c r="M41" t="n">
-        <v>902.7171284590456</v>
+        <v>630.0109117801883</v>
       </c>
       <c r="N41" t="n">
-        <v>1058.410851375986</v>
+        <v>785.7046346971283</v>
       </c>
       <c r="O41" t="n">
         <v>1196.760099161414</v>
@@ -7441,22 +7441,22 @@
         <v>1660.830159451659</v>
       </c>
       <c r="T41" t="n">
-        <v>1444.92204871942</v>
+        <v>1660.830159451659</v>
       </c>
       <c r="U41" t="n">
-        <v>1444.92204871942</v>
+        <v>1660.830159451659</v>
       </c>
       <c r="V41" t="n">
-        <v>1444.92204871942</v>
+        <v>1651.205572177368</v>
       </c>
       <c r="W41" t="n">
-        <v>1444.92204871942</v>
+        <v>1651.205572177368</v>
       </c>
       <c r="X41" t="n">
-        <v>1444.92204871942</v>
+        <v>1651.205572177368</v>
       </c>
       <c r="Y41" t="n">
-        <v>1048.431339640021</v>
+        <v>1254.714863097969</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>773.3047544086788</v>
+        <v>433.0916140925659</v>
       </c>
       <c r="C42" t="n">
-        <v>622.650523968771</v>
+        <v>282.4373836526581</v>
       </c>
       <c r="D42" t="n">
-        <v>492.5615565902514</v>
+        <v>152.3484162741384</v>
       </c>
       <c r="E42" t="n">
-        <v>356.1150657011391</v>
+        <v>152.3484162741384</v>
       </c>
       <c r="F42" t="n">
-        <v>231.6832595842709</v>
+        <v>152.3484162741384</v>
       </c>
       <c r="G42" t="n">
-        <v>112.5514464991657</v>
+        <v>33.21660318903319</v>
       </c>
       <c r="H42" t="n">
         <v>33.21660318903319</v>
@@ -7493,25 +7493,25 @@
         <v>232.2629375687356</v>
       </c>
       <c r="K42" t="n">
-        <v>342.280903207461</v>
+        <v>643.3184020330212</v>
       </c>
       <c r="L42" t="n">
-        <v>450.6064942362497</v>
+        <v>751.6439930618099</v>
       </c>
       <c r="M42" t="n">
-        <v>589.5993138907769</v>
+        <v>890.6368127163371</v>
       </c>
       <c r="N42" t="n">
-        <v>741.6364790907523</v>
+        <v>1042.673977916312</v>
       </c>
       <c r="O42" t="n">
-        <v>866.2779154983873</v>
+        <v>1167.315414323947</v>
       </c>
       <c r="P42" t="n">
-        <v>1277.333379962673</v>
+        <v>1310.363397906336</v>
       </c>
       <c r="Q42" t="n">
-        <v>1627.800141507996</v>
+        <v>1660.830159451659</v>
       </c>
       <c r="R42" t="n">
         <v>1660.830159451659</v>
@@ -7520,22 +7520,22 @@
         <v>1660.830159451659</v>
       </c>
       <c r="T42" t="n">
-        <v>1660.830159451659</v>
+        <v>1487.586858399449</v>
       </c>
       <c r="U42" t="n">
-        <v>1660.830159451659</v>
+        <v>1277.58476802829</v>
       </c>
       <c r="V42" t="n">
-        <v>1438.290157822726</v>
+        <v>1055.044766399357</v>
       </c>
       <c r="W42" t="n">
-        <v>1293.722383424121</v>
+        <v>824.9275205326439</v>
       </c>
       <c r="X42" t="n">
-        <v>1104.415305774133</v>
+        <v>635.6204428826557</v>
       </c>
       <c r="Y42" t="n">
-        <v>925.1010888496402</v>
+        <v>456.3062259581629</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>359.0548342205292</v>
+        <v>650.2958150820648</v>
       </c>
       <c r="C43" t="n">
-        <v>188.8497162865184</v>
+        <v>650.2958150820648</v>
       </c>
       <c r="D43" t="n">
-        <v>33.21660318903319</v>
+        <v>494.6627019845795</v>
       </c>
       <c r="E43" t="n">
-        <v>33.21660318903319</v>
+        <v>339.103889843782</v>
       </c>
       <c r="F43" t="n">
-        <v>33.21660318903319</v>
+        <v>181.7779550567549</v>
       </c>
       <c r="G43" t="n">
-        <v>33.21660318903319</v>
+        <v>181.7779550567549</v>
       </c>
       <c r="H43" t="n">
         <v>33.21660318903319</v>
@@ -7593,28 +7593,28 @@
         <v>1660.830159451659</v>
       </c>
       <c r="R43" t="n">
-        <v>1571.911242782292</v>
+        <v>1660.830159451659</v>
       </c>
       <c r="S43" t="n">
-        <v>1571.911242782292</v>
+        <v>1660.830159451659</v>
       </c>
       <c r="T43" t="n">
-        <v>1571.911242782292</v>
+        <v>1576.026619242562</v>
       </c>
       <c r="U43" t="n">
-        <v>1286.514887828922</v>
+        <v>1576.026619242562</v>
       </c>
       <c r="V43" t="n">
-        <v>1284.785638381027</v>
+        <v>1576.026619242562</v>
       </c>
       <c r="W43" t="n">
-        <v>1001.455236312204</v>
+        <v>1292.69621717374</v>
       </c>
       <c r="X43" t="n">
-        <v>767.3749140951871</v>
+        <v>1058.615894956723</v>
       </c>
       <c r="Y43" t="n">
-        <v>544.2628529118305</v>
+        <v>835.5038337733661</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1239.329913340802</v>
+        <v>1264.122886484355</v>
       </c>
       <c r="C44" t="n">
-        <v>1239.329913340802</v>
+        <v>1264.122886484355</v>
       </c>
       <c r="D44" t="n">
-        <v>1239.329913340802</v>
+        <v>1264.122886484355</v>
       </c>
       <c r="E44" t="n">
-        <v>1239.329913340802</v>
+        <v>861.5393616008995</v>
       </c>
       <c r="F44" t="n">
-        <v>822.4354748707798</v>
+        <v>444.6449231308773</v>
       </c>
       <c r="G44" t="n">
-        <v>411.0071549289357</v>
+        <v>33.21660318903319</v>
       </c>
       <c r="H44" t="n">
-        <v>104.6868927782535</v>
+        <v>33.21660318903319</v>
       </c>
       <c r="I44" t="n">
         <v>33.21660318903319</v>
@@ -7651,22 +7651,22 @@
         <v>322.1449868557675</v>
       </c>
       <c r="K44" t="n">
-        <v>396.7534048628727</v>
+        <v>566.3635497270799</v>
       </c>
       <c r="L44" t="n">
-        <v>513.2978899359558</v>
+        <v>682.908034800163</v>
       </c>
       <c r="M44" t="n">
-        <v>663.561219636623</v>
+        <v>833.1713645008302</v>
       </c>
       <c r="N44" t="n">
-        <v>819.2549425535631</v>
+        <v>988.8650874177703</v>
       </c>
       <c r="O44" t="n">
-        <v>957.6041903389913</v>
+        <v>1127.214335203199</v>
       </c>
       <c r="P44" t="n">
-        <v>1368.659654803277</v>
+        <v>1222.866566806769</v>
       </c>
       <c r="Q44" t="n">
         <v>1591.284395493444</v>
@@ -7678,22 +7678,22 @@
         <v>1660.830159451659</v>
       </c>
       <c r="T44" t="n">
-        <v>1660.830159451659</v>
+        <v>1444.92204871942</v>
       </c>
       <c r="U44" t="n">
-        <v>1405.21618473187</v>
+        <v>1444.92204871942</v>
       </c>
       <c r="V44" t="n">
-        <v>1405.21618473187</v>
+        <v>1444.92204871942</v>
       </c>
       <c r="W44" t="n">
-        <v>1405.21618473187</v>
+        <v>1444.92204871942</v>
       </c>
       <c r="X44" t="n">
-        <v>1405.21618473187</v>
+        <v>1444.92204871942</v>
       </c>
       <c r="Y44" t="n">
-        <v>1239.329913340802</v>
+        <v>1444.92204871942</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>304.5098915172015</v>
+        <v>622.650523968771</v>
       </c>
       <c r="C45" t="n">
-        <v>288.7949071632507</v>
+        <v>622.650523968771</v>
       </c>
       <c r="D45" t="n">
-        <v>288.7949071632507</v>
+        <v>492.5615565902514</v>
       </c>
       <c r="E45" t="n">
-        <v>152.3484162741384</v>
+        <v>356.1150657011391</v>
       </c>
       <c r="F45" t="n">
-        <v>152.3484162741384</v>
+        <v>231.6832595842709</v>
       </c>
       <c r="G45" t="n">
-        <v>33.21660318903319</v>
+        <v>112.5514464991657</v>
       </c>
       <c r="H45" t="n">
         <v>33.21660318903319</v>
@@ -7727,52 +7727,52 @@
         <v>33.21660318903319</v>
       </c>
       <c r="J45" t="n">
-        <v>37.52794258900821</v>
+        <v>232.2629375687356</v>
       </c>
       <c r="K45" t="n">
-        <v>142.1482818523971</v>
+        <v>290.4323393745302</v>
       </c>
       <c r="L45" t="n">
-        <v>553.2037463166828</v>
+        <v>548.2044291377515</v>
       </c>
       <c r="M45" t="n">
-        <v>692.19656597121</v>
+        <v>687.1972487922787</v>
       </c>
       <c r="N45" t="n">
-        <v>1103.252030435496</v>
+        <v>1098.252713256564</v>
       </c>
       <c r="O45" t="n">
-        <v>1514.307494899781</v>
+        <v>1222.894149664199</v>
       </c>
       <c r="P45" t="n">
-        <v>1601.776743141918</v>
+        <v>1310.363397906336</v>
       </c>
       <c r="Q45" t="n">
-        <v>1627.800141507996</v>
+        <v>1660.830159451659</v>
       </c>
       <c r="R45" t="n">
         <v>1660.830159451659</v>
       </c>
       <c r="S45" t="n">
-        <v>1660.830159451659</v>
+        <v>1543.136765291148</v>
       </c>
       <c r="T45" t="n">
-        <v>1487.586858399449</v>
+        <v>1369.893464238938</v>
       </c>
       <c r="U45" t="n">
-        <v>1277.58476802829</v>
+        <v>1221.389064409965</v>
       </c>
       <c r="V45" t="n">
-        <v>1055.044766399357</v>
+        <v>1221.389064409965</v>
       </c>
       <c r="W45" t="n">
-        <v>824.9275205326439</v>
+        <v>991.271818543252</v>
       </c>
       <c r="X45" t="n">
-        <v>635.6204428826557</v>
+        <v>801.9647408932638</v>
       </c>
       <c r="Y45" t="n">
-        <v>456.3062259581629</v>
+        <v>622.650523968771</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>596.7773971920172</v>
+        <v>987.9769788299363</v>
       </c>
       <c r="C46" t="n">
-        <v>426.5722792580065</v>
+        <v>817.7718608959256</v>
       </c>
       <c r="D46" t="n">
-        <v>426.5722792580065</v>
+        <v>662.1387477984404</v>
       </c>
       <c r="E46" t="n">
-        <v>271.013467117209</v>
+        <v>506.5799356576429</v>
       </c>
       <c r="F46" t="n">
-        <v>271.013467117209</v>
+        <v>349.2540008706159</v>
       </c>
       <c r="G46" t="n">
-        <v>271.013467117209</v>
+        <v>181.7779550567549</v>
       </c>
       <c r="H46" t="n">
-        <v>122.4521152494872</v>
+        <v>33.21660318903319</v>
       </c>
       <c r="I46" t="n">
         <v>33.21660318903319</v>
@@ -7836,22 +7836,22 @@
         <v>1471.57263474504</v>
       </c>
       <c r="T46" t="n">
-        <v>1239.177799283692</v>
+        <v>1471.57263474504</v>
       </c>
       <c r="U46" t="n">
-        <v>1239.177799283692</v>
+        <v>1471.57263474504</v>
       </c>
       <c r="V46" t="n">
-        <v>1239.177799283692</v>
+        <v>1471.57263474504</v>
       </c>
       <c r="W46" t="n">
-        <v>1239.177799283692</v>
+        <v>1471.57263474504</v>
       </c>
       <c r="X46" t="n">
-        <v>1005.097477066675</v>
+        <v>1396.297058704594</v>
       </c>
       <c r="Y46" t="n">
-        <v>781.9854158833185</v>
+        <v>1173.184997521238</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
@@ -7987,19 +7987,19 @@
         <v>383.2091448686429</v>
       </c>
       <c r="M2" t="n">
-        <v>379.6860267358784</v>
+        <v>224.2837924789551</v>
       </c>
       <c r="N2" t="n">
-        <v>183.0754269340418</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P2" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,28 +8057,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L3" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>306.0417354614835</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O3" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P3" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N5" t="n">
-        <v>266.9255203461039</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O5" t="n">
-        <v>379.5248125622476</v>
+        <v>183.5207730203541</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8300,22 +8300,22 @@
         <v>319.5579104714845</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>196.4724116665307</v>
       </c>
       <c r="M6" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O6" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P6" t="n">
-        <v>193.4954296289271</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8455,25 +8455,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N8" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>267.3708664324161</v>
+        <v>224.1225783053243</v>
       </c>
       <c r="P8" t="n">
-        <v>380.2624223790763</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N9" t="n">
-        <v>306.0417354614834</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>322.64853402704</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P9" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8771,10 +8771,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>73.43929961573953</v>
+        <v>356.4505683419101</v>
       </c>
       <c r="L12" t="n">
-        <v>305.7877509449463</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>22.77648221877588</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>151.0191573485622</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>339.8455014718993</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>275.4608249281387</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>241.5716250731538</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
-        <v>102.5176150018526</v>
+        <v>32.26936857941277</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,13 +9008,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>52.37228669992948</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>85.73594118847805</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
-        <v>37.65015041711197</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>187.5829754882921</v>
+        <v>308.6966047371027</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>417.488762807867</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>412.0035171348641</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>429.523188984876</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>472.65148815847</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
-        <v>32.26936857941277</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>459.8501150016837</v>
+        <v>95.76886714842887</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>346.9015496838255</v>
+        <v>480.9171279174939</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>37.65015041711197</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>363.8593300877059</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>417.488762807867</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>378.9448511595426</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>472.65148815847</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5176150018526</v>
+        <v>32.26936857941277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>129.1325216369775</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>443.3694631038592</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>480.9171279174939</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.48362740104292</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>37.65015041711197</v>
@@ -9640,7 +9640,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>378.9448511595426</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9649,19 +9649,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>412.0035171348641</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>472.65148815847</v>
+        <v>369.3445757607086</v>
       </c>
       <c r="Q23" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
-        <v>32.26936857941277</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>144.0339894955037</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>459.8501150016838</v>
+        <v>160.9889852876601</v>
       </c>
       <c r="M24" t="n">
-        <v>428.8731163898266</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>415.6970097782627</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>480.9171279174939</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9877,7 +9877,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>493.9078655286369</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>308.6966047371036</v>
       </c>
       <c r="P26" t="n">
-        <v>287.4402273669368</v>
+        <v>472.6514881584702</v>
       </c>
       <c r="Q26" t="n">
         <v>331.2113854294513</v>
@@ -9953,13 +9953,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>176.8219880435328</v>
+        <v>95.76886714842978</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>443.3694631038594</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>480.9171279174941</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>493.9078655286369</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>451.5482018256289</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>417.4887628078671</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>412.0035171348643</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>165.55796264754</v>
       </c>
       <c r="P29" t="n">
-        <v>287.4402273669368</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5176150018526</v>
+        <v>32.26936857941277</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,25 +10193,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>459.8501150016839</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>228.1214154092515</v>
       </c>
       <c r="N30" t="n">
-        <v>325.8345367680161</v>
+        <v>415.6970097782629</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>443.3694631038594</v>
       </c>
       <c r="P30" t="n">
-        <v>480.9171279174941</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.65015041711197</v>
@@ -10351,16 +10351,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>493.9078655286369</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>451.5482018256289</v>
       </c>
       <c r="M32" t="n">
-        <v>417.4887628078671</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>363.8593300877063</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>237.3516573931992</v>
       </c>
       <c r="R32" t="n">
-        <v>102.5176150018526</v>
+        <v>32.26936857941277</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>459.8501150016839</v>
+        <v>95.76886714842978</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>116.8358800642397</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>480.9171279174941</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>493.9078655286369</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>148.8277052993417</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>472.6514881584702</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>216.2483710603581</v>
       </c>
       <c r="R35" t="n">
         <v>32.26936857941277</v>
@@ -10667,10 +10667,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>459.8501150016839</v>
+        <v>129.1325216369784</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>81.84817637491717</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>480.9171279174941</v>
@@ -10834,16 +10834,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>412.0035171348643</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>429.5231889848762</v>
       </c>
       <c r="P38" t="n">
-        <v>472.6514881584702</v>
+        <v>351.8249039106976</v>
       </c>
       <c r="Q38" t="n">
-        <v>227.9044730316905</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10901,31 +10901,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>214.9453087976876</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>459.850115001684</v>
+        <v>459.8501150016839</v>
       </c>
       <c r="M39" t="n">
-        <v>428.8731163898268</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>443.3694631038594</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>116.8358800642398</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>37.65015041711197</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>207.8765069726977</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>229.9015198134504</v>
       </c>
       <c r="L41" t="n">
-        <v>297.4858377688914</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>275.4608249281388</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>52.37228669993016</v>
+        <v>356.4505683419102</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>326.8547638607566</v>
+        <v>56.14013670732538</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
-        <v>71.01380490566048</v>
+        <v>37.65015041711197</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>171.3233786507143</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11314,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>318.5891241017328</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.9456399784331</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11375,13 +11375,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>46.92013884605494</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>305.7877509449464</v>
+        <v>150.9560593277098</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>261.6346457215254</v>
       </c>
       <c r="O45" t="n">
-        <v>289.3070990471219</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
-        <v>71.01380490566048</v>
+        <v>37.65015041711197</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C2" t="n">
         <v>159.2827713439475</v>
       </c>
       <c r="D2" t="n">
-        <v>151.6257423573478</v>
+        <v>216.6500751711488</v>
       </c>
       <c r="E2" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -22597,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.1773736001872</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -22615,7 +22615,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="3">
@@ -22631,13 +22631,13 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>73.64831252358162</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -22685,16 +22685,16 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>16.27249346440612</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>67.50683806578863</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>30.81223441176471</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22786,19 +22786,19 @@
         <v>166.5288231161317</v>
       </c>
       <c r="C5" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>412.6372712693318</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -22843,13 +22843,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>136.1361143018333</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>37.02448993300682</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -22922,16 +22922,16 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>149.0286760983792</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -22989,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>124.3011617266384</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U7" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>60.7699248257006</v>
       </c>
       <c r="W7" t="n">
         <v>50.53612290998299</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.5288231161318</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>159.2827713439476</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>207.9546964491751</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>366.3289079700248</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
-        <v>49.21814208904546</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23153,19 +23153,19 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>220.3146016126436</v>
+        <v>126.2886151492664</v>
       </c>
       <c r="W9" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>177.5210747552478</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>181.594234581981</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -23196,13 +23196,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>3.400886175297074</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>259.32446322513</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>129.4698014757045</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -23266,7 +23266,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>106.9926494439251</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>303.2570595291754</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>70.75558669332813</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23348,10 +23348,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>39.80885102323205</v>
       </c>
       <c r="G12" t="n">
-        <v>31.14495233068909</v>
+        <v>117.9404949542542</v>
       </c>
       <c r="H12" t="n">
         <v>78.54149487703117</v>
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>116.5164602189057</v>
       </c>
       <c r="T12" t="n">
-        <v>171.5108680416884</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>72.94176006950995</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.02972750267305</v>
       </c>
       <c r="S13" t="n">
-        <v>187.3649494595527</v>
+        <v>85.07791661201247</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -23509,7 +23509,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>407.3140367424256</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>303.2570595291754</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>125.7202034590522</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.0578349725913</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>134.1449316072419</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.69023523007854</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>17.26184794991725</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>201.2104369723335</v>
+        <v>68.19391382569916</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
@@ -23703,22 +23703,22 @@
         <v>88.02972750267305</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>187.3649494595527</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>36.69433612155376</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>51.78974911897001</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>407.3140367424256</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>303.2570595291754</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>125.7202034590522</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.4466496149301</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>285.8075918699522</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.8012853557223</v>
       </c>
       <c r="H19" t="n">
-        <v>147.0757383490445</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>108.6006243522531</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.02972750267305</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>31.34156926473474</v>
       </c>
       <c r="T19" t="n">
         <v>230.0708871067346</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>77.61165306649929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>285.9619305317656</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>364.1777932065532</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>125.7202034590522</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>213.7490296249172</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>18.20020005987897</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.8012853557223</v>
       </c>
       <c r="H22" t="n">
-        <v>111.4971684380278</v>
+        <v>147.0757383490445</v>
       </c>
       <c r="I22" t="n">
         <v>108.6006243522531</v>
@@ -24177,10 +24177,10 @@
         <v>88.02972750267305</v>
       </c>
       <c r="S22" t="n">
-        <v>187.3649494595527</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>230.0708871067346</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24214,19 +24214,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>187.6339240559695</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>407.3140367424256</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>303.2570595291754</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>70.75558669332813</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>95.89647351377363</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>173.5043093241737</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.8012853557223</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.0757383490445</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>108.6006243522531</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>230.0708871067346</v>
       </c>
       <c r="U25" t="n">
-        <v>135.5560758339078</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>407.3140367424256</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>39.43855963454831</v>
+        <v>303.2570595291754</v>
       </c>
       <c r="I26" t="n">
         <v>70.75558669332813</v>
@@ -24496,7 +24496,7 @@
         <v>125.7202034590522</v>
       </c>
       <c r="T26" t="n">
-        <v>213.7490296249172</v>
+        <v>12.13920719878729</v>
       </c>
       <c r="U26" t="n">
         <v>253.0578349725913</v>
@@ -24508,7 +24508,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.62172852300196</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>51.98061075883233</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>108.6006243522531</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>88.02972750267305</v>
       </c>
       <c r="S28" t="n">
-        <v>187.3649494595527</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>230.0708871067346</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5423914038366</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24685,7 +24685,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>282.1491120255284</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>407.3140367424256</v>
       </c>
       <c r="H29" t="n">
-        <v>303.2570595291754</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>70.75558669332813</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>125.7202034590522</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>96.3682849350308</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>76.0596008996326</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.0757383490445</v>
+        <v>63.13273569249665</v>
       </c>
       <c r="I31" t="n">
         <v>108.6006243522531</v>
@@ -24888,10 +24888,10 @@
         <v>88.02972750267305</v>
       </c>
       <c r="S31" t="n">
-        <v>187.3649494595527</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>230.0708871067346</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>334.6084767625762</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>407.3140367424256</v>
@@ -24937,7 +24937,7 @@
         <v>303.2570595291754</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>70.75558669332813</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0578349725913</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>101.2003721729035</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>165.8012853557223</v>
+        <v>77.03106539640099</v>
       </c>
       <c r="H34" t="n">
         <v>147.0757383490445</v>
@@ -25125,7 +25125,7 @@
         <v>88.02972750267305</v>
       </c>
       <c r="S34" t="n">
-        <v>187.3649494595527</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>230.0708871067346</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>204.4421966480905</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>182.0742890018405</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>407.3140367424256</v>
+        <v>231.7808056464929</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>125.7202034590522</v>
       </c>
       <c r="T35" t="n">
-        <v>213.7490296249172</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0578349725913</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>38.36296800966619</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>230.0708871067346</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>85.07791661201256</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>265.9207814495861</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>407.3140367424256</v>
+        <v>59.68818263890893</v>
       </c>
       <c r="H38" t="n">
-        <v>303.2570595291754</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>70.75558669332813</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>125.7202034590522</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>140.9278011252124</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.0757383490445</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>108.6006243522531</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.02972750267305</v>
       </c>
       <c r="S40" t="n">
-        <v>187.3649494595527</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>230.0708871067346</v>
       </c>
       <c r="U40" t="n">
-        <v>74.1403279231034</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25636,19 +25636,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>407.3140367424256</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>156.7514932527454</v>
+        <v>303.2570595291754</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>70.75558669332813</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>125.7202034590522</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>213.7490296249172</v>
       </c>
       <c r="U41" t="n">
         <v>253.0578349725913</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>329.1573998019682</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>127.2959053496107</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25715,16 +25715,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>78.54149487703117</v>
       </c>
       <c r="I42" t="n">
         <v>17.26184794991725</v>
@@ -25760,16 +25760,16 @@
         <v>116.5164602189057</v>
       </c>
       <c r="T42" t="n">
-        <v>171.5108680416884</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>207.9020694674472</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>84.69397675342705</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.8012853557223</v>
       </c>
       <c r="H43" t="n">
-        <v>147.0757383490445</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>108.6006243522531</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.02972750267305</v>
       </c>
       <c r="S43" t="n">
         <v>187.3649494595527</v>
       </c>
       <c r="T43" t="n">
-        <v>230.0708871067346</v>
+        <v>146.1153822997285</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5423914038366</v>
       </c>
       <c r="V43" t="n">
-        <v>261.6075947739675</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>217.4986276415687</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -25873,7 +25873,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>303.2570595291754</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>70.75558669332813</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>125.7202034590522</v>
       </c>
       <c r="T44" t="n">
-        <v>213.7490296249172</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0578349725913</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25933,7 +25933,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>228.2983933114475</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>133.5898536250974</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>78.54149487703117</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>17.26184794991725</v>
@@ -25994,16 +25994,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>116.5164602189057</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>60.88271363676446</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.8012853557223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>20.25746741240366</v>
+        <v>108.6006243522531</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>230.0708871067346</v>
       </c>
       <c r="U46" t="n">
         <v>282.5423914038366</v>
@@ -26088,7 +26088,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>157.2166987148053</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>407445.619521683</v>
+        <v>407445.6195216829</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>407445.6195216829</v>
+        <v>407445.619521683</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>636296.9237308151</v>
+        <v>636296.9237308153</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>636296.9237308151</v>
+        <v>636296.9237308152</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>636296.9237308153</v>
+        <v>636296.9237308152</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>636296.9237308154</v>
+        <v>636296.9237308153</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>636296.9237308152</v>
+        <v>636296.9237308153</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>530197.7988324233</v>
+        <v>530197.7988324234</v>
       </c>
     </row>
     <row r="16">
@@ -26325,37 +26325,37 @@
         <v>212838.9518713571</v>
       </c>
       <c r="F2" t="n">
-        <v>212838.9518713571</v>
+        <v>212838.951871357</v>
       </c>
       <c r="G2" t="n">
+        <v>251133.5003680872</v>
+      </c>
+      <c r="H2" t="n">
         <v>251133.5003680873</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>251133.5003680872</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>251133.5003680873</v>
-      </c>
-      <c r="J2" t="n">
-        <v>251133.5003680872</v>
       </c>
       <c r="K2" t="n">
         <v>251133.5003680873</v>
       </c>
       <c r="L2" t="n">
-        <v>251133.5003680872</v>
+        <v>251133.5003680873</v>
       </c>
       <c r="M2" t="n">
         <v>251133.5003680873</v>
       </c>
       <c r="N2" t="n">
-        <v>251133.5003680872</v>
+        <v>251133.5003680873</v>
       </c>
       <c r="O2" t="n">
+        <v>212838.951871357</v>
+      </c>
+      <c r="P2" t="n">
         <v>212838.9518713571</v>
-      </c>
-      <c r="P2" t="n">
-        <v>212838.951871357</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60167.90937904646</v>
+        <v>60167.90937904649</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>63926.60802151193</v>
       </c>
       <c r="C4" t="n">
-        <v>63926.60802151193</v>
+        <v>63926.60802151192</v>
       </c>
       <c r="D4" t="n">
         <v>63926.60802151192</v>
@@ -26432,22 +26432,22 @@
         <v>33933.62564655102</v>
       </c>
       <c r="G4" t="n">
-        <v>50790.43857527922</v>
+        <v>50790.4385752792</v>
       </c>
       <c r="H4" t="n">
-        <v>50790.43857527919</v>
+        <v>50790.43857527921</v>
       </c>
       <c r="I4" t="n">
-        <v>50790.43857527921</v>
+        <v>50790.4385752792</v>
       </c>
       <c r="J4" t="n">
-        <v>50790.43857527923</v>
+        <v>50790.43857527924</v>
       </c>
       <c r="K4" t="n">
-        <v>50790.43857527923</v>
+        <v>50790.43857527924</v>
       </c>
       <c r="L4" t="n">
-        <v>50790.43857527922</v>
+        <v>50790.43857527924</v>
       </c>
       <c r="M4" t="n">
         <v>50790.43857527924</v>
@@ -26456,10 +26456,10 @@
         <v>50790.43857527924</v>
       </c>
       <c r="O4" t="n">
-        <v>33933.62564655103</v>
+        <v>33933.62564655104</v>
       </c>
       <c r="P4" t="n">
-        <v>33933.62564655103</v>
+        <v>33933.62564655102</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41293.15182048219</v>
+        <v>-42395.0074330317</v>
       </c>
       <c r="C6" t="n">
-        <v>35772.0600507404</v>
+        <v>34670.20443819089</v>
       </c>
       <c r="D6" t="n">
-        <v>35772.06005074034</v>
+        <v>34670.20443819092</v>
       </c>
       <c r="E6" t="n">
-        <v>-254115.860334154</v>
+        <v>-254905.6632966526</v>
       </c>
       <c r="F6" t="n">
-        <v>144349.3514179754</v>
+        <v>143559.5484554768</v>
       </c>
       <c r="G6" t="n">
-        <v>114193.9121988369</v>
+        <v>113586.4642291798</v>
       </c>
       <c r="H6" t="n">
-        <v>156420.0952513276</v>
+        <v>155812.6472816708</v>
       </c>
       <c r="I6" t="n">
-        <v>156420.0952513278</v>
+        <v>155812.6472816707</v>
       </c>
       <c r="J6" t="n">
-        <v>96252.18587228114</v>
+        <v>95644.73790262427</v>
       </c>
       <c r="K6" t="n">
-        <v>156420.0952513277</v>
+        <v>155812.6472816707</v>
       </c>
       <c r="L6" t="n">
-        <v>156420.0952513277</v>
+        <v>155812.6472816708</v>
       </c>
       <c r="M6" t="n">
-        <v>110255.9103356578</v>
+        <v>109648.4623660008</v>
       </c>
       <c r="N6" t="n">
-        <v>156420.0952513276</v>
+        <v>155812.6472816707</v>
       </c>
       <c r="O6" t="n">
-        <v>144349.3514179754</v>
+        <v>143559.5484554766</v>
       </c>
       <c r="P6" t="n">
-        <v>144349.3514179753</v>
+        <v>143559.5484554768</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="D4" t="n">
-        <v>229.9609751381511</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E4" t="n">
         <v>415.2075398629146</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>229.9609751381513</v>
+        <v>229.9609751381514</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34707,19 +34707,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M2" t="n">
+        <v>74.55874088122788</v>
+      </c>
+      <c r="N2" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N2" t="n">
-        <v>33.95693559625767</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L3" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>220.6696226073169</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="O3" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>117.8070290083198</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O5" t="n">
+        <v>33.95693559625767</v>
+      </c>
+      <c r="P5" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35020,22 +35020,22 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O6" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P6" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N8" t="n">
-        <v>229.9609751381511</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>117.8070290083197</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="P8" t="n">
-        <v>229.9609751381511</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="N9" t="n">
-        <v>220.6696226073168</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>229.9609751381511</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P9" t="n">
-        <v>229.9609751381511</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>229.9609751381511</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>201.0569034138408</v>
       </c>
       <c r="K12" t="n">
-        <v>132.1962711367441</v>
+        <v>415.2075398629146</v>
       </c>
       <c r="L12" t="n">
-        <v>415.2075398629146</v>
+        <v>109.4197889179683</v>
       </c>
       <c r="M12" t="n">
         <v>140.3967875298255</v>
@@ -35506,7 +35506,7 @@
         <v>125.9004408157929</v>
       </c>
       <c r="P12" t="n">
-        <v>88.35277600215818</v>
+        <v>111.1292582209341</v>
       </c>
       <c r="Q12" t="n">
         <v>354.0068298437609</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>179.0752898687476</v>
+        <v>291.8468521886205</v>
       </c>
       <c r="K14" t="n">
-        <v>415.2075398629146</v>
+        <v>75.36203839101537</v>
       </c>
       <c r="L14" t="n">
         <v>117.7217020940234</v>
@@ -35661,16 +35661,16 @@
         <v>157.266386784788</v>
       </c>
       <c r="O14" t="n">
-        <v>415.2075398629146</v>
+        <v>139.746714934776</v>
       </c>
       <c r="P14" t="n">
-        <v>96.61841576118209</v>
+        <v>338.1900408343359</v>
       </c>
       <c r="Q14" t="n">
-        <v>40.92783546617986</v>
+        <v>372.1392208956312</v>
       </c>
       <c r="R14" t="n">
-        <v>70.24824642243983</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>201.0569034138408</v>
       </c>
       <c r="K15" t="n">
-        <v>58.75697152100459</v>
+        <v>111.1292582209341</v>
       </c>
       <c r="L15" t="n">
         <v>109.4197889179683</v>
       </c>
       <c r="M15" t="n">
-        <v>226.1327287183035</v>
+        <v>140.3967875298255</v>
       </c>
       <c r="N15" t="n">
         <v>153.5728941413893</v>
@@ -35749,7 +35749,7 @@
         <v>354.0068298437609</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>33.36365448854851</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>28.0561325201854</v>
+        <v>291.8468521886205</v>
       </c>
       <c r="K17" t="n">
-        <v>262.9450138793075</v>
+        <v>384.058643128118</v>
       </c>
       <c r="L17" t="n">
         <v>117.7217020940234</v>
       </c>
       <c r="M17" t="n">
+        <v>151.7811411117851</v>
+      </c>
+      <c r="N17" t="n">
+        <v>157.266386784788</v>
+      </c>
+      <c r="O17" t="n">
+        <v>139.746714934776</v>
+      </c>
+      <c r="P17" t="n">
         <v>569.2699039196521</v>
       </c>
-      <c r="N17" t="n">
-        <v>569.2699039196521</v>
-      </c>
-      <c r="O17" t="n">
-        <v>569.2699039196521</v>
-      </c>
-      <c r="P17" t="n">
-        <v>96.61841576118209</v>
-      </c>
       <c r="Q17" t="n">
-        <v>40.92783546617986</v>
+        <v>372.1392208956312</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>70.24824642243983</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4.354888282803046</v>
+        <v>201.0569034138408</v>
       </c>
       <c r="K18" t="n">
         <v>471.3227412606273</v>
       </c>
       <c r="L18" t="n">
-        <v>569.2699039196521</v>
+        <v>205.1886560663972</v>
       </c>
       <c r="M18" t="n">
         <v>140.3967875298255</v>
@@ -35980,13 +35980,13 @@
         <v>125.9004408157929</v>
       </c>
       <c r="P18" t="n">
-        <v>435.2543256859837</v>
+        <v>569.2699039196521</v>
       </c>
       <c r="Q18" t="n">
         <v>354.0068298437609</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>33.36365448854851</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>291.8468521886205</v>
       </c>
       <c r="K20" t="n">
-        <v>439.2213684787213</v>
+        <v>75.36203839101537</v>
       </c>
       <c r="L20" t="n">
         <v>117.7217020940234</v>
       </c>
       <c r="M20" t="n">
-        <v>569.2699039196521</v>
+        <v>151.7811411117851</v>
       </c>
       <c r="N20" t="n">
         <v>157.266386784788</v>
       </c>
       <c r="O20" t="n">
-        <v>139.746714934776</v>
+        <v>518.6915660943187</v>
       </c>
       <c r="P20" t="n">
-        <v>96.61841576118209</v>
+        <v>569.2699039196521</v>
       </c>
       <c r="Q20" t="n">
         <v>372.1392208956312</v>
       </c>
       <c r="R20" t="n">
-        <v>70.24824642243983</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>471.3227412606273</v>
       </c>
       <c r="L21" t="n">
-        <v>109.4197889179683</v>
+        <v>238.5523105549458</v>
       </c>
       <c r="M21" t="n">
         <v>140.3967875298255</v>
@@ -36214,13 +36214,13 @@
         <v>153.5728941413893</v>
       </c>
       <c r="O21" t="n">
-        <v>569.2699039196521</v>
+        <v>125.9004408157929</v>
       </c>
       <c r="P21" t="n">
         <v>569.2699039196521</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.76988837687924</v>
+        <v>354.0068298437609</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>291.8468521886205</v>
       </c>
       <c r="K23" t="n">
-        <v>454.306889550558</v>
+        <v>75.36203839101537</v>
       </c>
       <c r="L23" t="n">
         <v>117.7217020940234</v>
@@ -36369,19 +36369,19 @@
         <v>151.7811411117851</v>
       </c>
       <c r="N23" t="n">
-        <v>157.266386784788</v>
+        <v>569.2699039196521</v>
       </c>
       <c r="O23" t="n">
         <v>139.746714934776</v>
       </c>
       <c r="P23" t="n">
-        <v>569.2699039196521</v>
+        <v>465.9629915218907</v>
       </c>
       <c r="Q23" t="n">
         <v>372.1392208956312</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>70.24824642243983</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>148.3888777783068</v>
+        <v>201.0569034138408</v>
       </c>
       <c r="K24" t="n">
-        <v>58.75697152100459</v>
+        <v>471.3227412606273</v>
       </c>
       <c r="L24" t="n">
+        <v>270.4087742056284</v>
+      </c>
+      <c r="M24" t="n">
+        <v>140.3967875298255</v>
+      </c>
+      <c r="N24" t="n">
         <v>569.2699039196521</v>
-      </c>
-      <c r="M24" t="n">
-        <v>569.2699039196521</v>
-      </c>
-      <c r="N24" t="n">
-        <v>153.5728941413893</v>
       </c>
       <c r="O24" t="n">
         <v>125.9004408157929</v>
       </c>
       <c r="P24" t="n">
-        <v>569.2699039196521</v>
+        <v>88.35277600215818</v>
       </c>
       <c r="Q24" t="n">
-        <v>26.28626097583633</v>
+        <v>354.0068298437609</v>
       </c>
       <c r="R24" t="n">
         <v>33.36365448854851</v>
@@ -36597,7 +36597,7 @@
         <v>291.8468521886205</v>
       </c>
       <c r="K26" t="n">
-        <v>569.2699039196523</v>
+        <v>75.36203839101537</v>
       </c>
       <c r="L26" t="n">
         <v>117.7217020940234</v>
@@ -36609,10 +36609,10 @@
         <v>157.266386784788</v>
       </c>
       <c r="O26" t="n">
-        <v>139.746714934776</v>
+        <v>448.4433196718796</v>
       </c>
       <c r="P26" t="n">
-        <v>384.0586431281189</v>
+        <v>569.2699039196523</v>
       </c>
       <c r="Q26" t="n">
         <v>372.1392208956312</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4.354888282803046</v>
+        <v>201.0569034138408</v>
       </c>
       <c r="K27" t="n">
         <v>471.3227412606273</v>
       </c>
       <c r="L27" t="n">
-        <v>286.2417769615012</v>
+        <v>205.1886560663981</v>
       </c>
       <c r="M27" t="n">
         <v>140.3967875298255</v>
@@ -36688,13 +36688,13 @@
         <v>153.5728941413893</v>
       </c>
       <c r="O27" t="n">
-        <v>569.2699039196523</v>
+        <v>125.9004408157929</v>
       </c>
       <c r="P27" t="n">
         <v>569.2699039196523</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.28626097583633</v>
+        <v>354.0068298437609</v>
       </c>
       <c r="R27" t="n">
         <v>33.36365448854851</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>291.8468521886205</v>
+        <v>28.0561325201854</v>
       </c>
       <c r="K29" t="n">
+        <v>75.36203839101537</v>
+      </c>
+      <c r="L29" t="n">
         <v>569.2699039196523</v>
       </c>
-      <c r="L29" t="n">
-        <v>117.7217020940234</v>
-      </c>
       <c r="M29" t="n">
-        <v>151.7811411117851</v>
+        <v>569.2699039196523</v>
       </c>
       <c r="N29" t="n">
-        <v>157.266386784788</v>
+        <v>569.2699039196523</v>
       </c>
       <c r="O29" t="n">
-        <v>139.746714934776</v>
+        <v>305.304677582316</v>
       </c>
       <c r="P29" t="n">
-        <v>384.0586431281189</v>
+        <v>96.61841576118209</v>
       </c>
       <c r="Q29" t="n">
-        <v>372.1392208956312</v>
+        <v>40.92783546617986</v>
       </c>
       <c r="R29" t="n">
-        <v>70.24824642243983</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>4.354888282803046</v>
       </c>
       <c r="K30" t="n">
-        <v>471.3227412606273</v>
+        <v>58.75697152100459</v>
       </c>
       <c r="L30" t="n">
-        <v>109.4197889179683</v>
+        <v>569.2699039196523</v>
       </c>
       <c r="M30" t="n">
-        <v>140.3967875298255</v>
+        <v>368.518202939077</v>
       </c>
       <c r="N30" t="n">
-        <v>479.4074309094054</v>
+        <v>569.2699039196523</v>
       </c>
       <c r="O30" t="n">
-        <v>125.9004408157929</v>
+        <v>569.2699039196523</v>
       </c>
       <c r="P30" t="n">
-        <v>569.2699039196523</v>
+        <v>88.35277600215818</v>
       </c>
       <c r="Q30" t="n">
-        <v>354.0068298437609</v>
+        <v>26.28626097583633</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>291.8468521886205</v>
       </c>
       <c r="K32" t="n">
-        <v>75.36203839101537</v>
+        <v>569.2699039196523</v>
       </c>
       <c r="L32" t="n">
-        <v>117.7217020940234</v>
+        <v>569.2699039196523</v>
       </c>
       <c r="M32" t="n">
-        <v>569.2699039196523</v>
+        <v>151.7811411117851</v>
       </c>
       <c r="N32" t="n">
-        <v>521.1257168724943</v>
+        <v>157.266386784788</v>
       </c>
       <c r="O32" t="n">
         <v>139.746714934776</v>
@@ -37089,10 +37089,10 @@
         <v>96.61841576118209</v>
       </c>
       <c r="Q32" t="n">
-        <v>372.1392208956312</v>
+        <v>278.2794928593791</v>
       </c>
       <c r="R32" t="n">
-        <v>70.24824642243983</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>471.3227412606273</v>
       </c>
       <c r="L33" t="n">
-        <v>569.2699039196523</v>
+        <v>205.1886560663981</v>
       </c>
       <c r="M33" t="n">
         <v>140.3967875298255</v>
@@ -37162,10 +37162,10 @@
         <v>153.5728941413893</v>
       </c>
       <c r="O33" t="n">
-        <v>242.7363208800326</v>
+        <v>125.9004408157929</v>
       </c>
       <c r="P33" t="n">
-        <v>88.35277600215818</v>
+        <v>569.2699039196523</v>
       </c>
       <c r="Q33" t="n">
         <v>354.0068298437609</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>28.0561325201854</v>
+        <v>291.8468521886205</v>
       </c>
       <c r="K35" t="n">
         <v>569.2699039196523</v>
@@ -37320,13 +37320,13 @@
         <v>157.266386784788</v>
       </c>
       <c r="O35" t="n">
-        <v>288.5744202341178</v>
+        <v>139.746714934776</v>
       </c>
       <c r="P35" t="n">
         <v>569.2699039196523</v>
       </c>
       <c r="Q35" t="n">
-        <v>372.1392208956312</v>
+        <v>257.176206526538</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>201.0569034138408</v>
       </c>
       <c r="K36" t="n">
-        <v>58.75697152100459</v>
+        <v>471.3227412606273</v>
       </c>
       <c r="L36" t="n">
-        <v>569.2699039196523</v>
+        <v>238.5523105549467</v>
       </c>
       <c r="M36" t="n">
         <v>140.3967875298255</v>
@@ -37399,7 +37399,7 @@
         <v>153.5728941413893</v>
       </c>
       <c r="O36" t="n">
-        <v>207.7486171907101</v>
+        <v>125.9004408157929</v>
       </c>
       <c r="P36" t="n">
         <v>569.2699039196523</v>
@@ -37554,16 +37554,16 @@
         <v>151.7811411117851</v>
       </c>
       <c r="N38" t="n">
+        <v>157.266386784788</v>
+      </c>
+      <c r="O38" t="n">
         <v>569.2699039196523</v>
       </c>
-      <c r="O38" t="n">
-        <v>139.746714934776</v>
-      </c>
       <c r="P38" t="n">
-        <v>569.2699039196523</v>
+        <v>448.4433196718796</v>
       </c>
       <c r="Q38" t="n">
-        <v>268.8323084978704</v>
+        <v>372.1392208956312</v>
       </c>
       <c r="R38" t="n">
         <v>70.24824642243983</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>4.354888282803046</v>
+        <v>201.0569034138408</v>
       </c>
       <c r="K39" t="n">
-        <v>273.7022803186921</v>
+        <v>471.3227412606273</v>
       </c>
       <c r="L39" t="n">
         <v>569.2699039196523</v>
       </c>
       <c r="M39" t="n">
-        <v>569.2699039196523</v>
+        <v>140.3967875298255</v>
       </c>
       <c r="N39" t="n">
         <v>153.5728941413893</v>
       </c>
       <c r="O39" t="n">
-        <v>569.2699039196523</v>
+        <v>125.9004408157929</v>
       </c>
       <c r="P39" t="n">
-        <v>88.35277600215818</v>
+        <v>205.188656066398</v>
       </c>
       <c r="Q39" t="n">
-        <v>26.28626097583633</v>
+        <v>354.0068298437609</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>33.36365448854851</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>235.9326394928831</v>
+        <v>28.0561325201854</v>
       </c>
       <c r="K41" t="n">
-        <v>75.36203839101537</v>
+        <v>305.2635582044658</v>
       </c>
       <c r="L41" t="n">
-        <v>415.2075398629148</v>
+        <v>117.7217020940234</v>
       </c>
       <c r="M41" t="n">
         <v>151.7811411117851</v>
@@ -37794,7 +37794,7 @@
         <v>157.266386784788</v>
       </c>
       <c r="O41" t="n">
-        <v>139.746714934776</v>
+        <v>415.2075398629148</v>
       </c>
       <c r="P41" t="n">
         <v>96.61841576118209</v>
@@ -37861,7 +37861,7 @@
         <v>201.0569034138408</v>
       </c>
       <c r="K42" t="n">
-        <v>111.1292582209347</v>
+        <v>415.2075398629148</v>
       </c>
       <c r="L42" t="n">
         <v>109.4197889179683</v>
@@ -37876,13 +37876,13 @@
         <v>125.9004408157929</v>
       </c>
       <c r="P42" t="n">
-        <v>415.2075398629148</v>
+        <v>144.4929127094836</v>
       </c>
       <c r="Q42" t="n">
         <v>354.0068298437609</v>
       </c>
       <c r="R42" t="n">
-        <v>33.36365448854851</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>291.8468521886205</v>
       </c>
       <c r="K44" t="n">
-        <v>75.36203839101537</v>
+        <v>246.6854170417297</v>
       </c>
       <c r="L44" t="n">
         <v>117.7217020940234</v>
@@ -38034,10 +38034,10 @@
         <v>139.746714934776</v>
       </c>
       <c r="P44" t="n">
-        <v>415.2075398629148</v>
+        <v>96.61841576118209</v>
       </c>
       <c r="Q44" t="n">
-        <v>224.873475444613</v>
+        <v>372.1392208956312</v>
       </c>
       <c r="R44" t="n">
         <v>70.24824642243983</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4.354888282803046</v>
+        <v>201.0569034138408</v>
       </c>
       <c r="K45" t="n">
-        <v>105.6771103670595</v>
+        <v>58.75697152100459</v>
       </c>
       <c r="L45" t="n">
-        <v>415.2075398629148</v>
+        <v>260.3758482456781</v>
       </c>
       <c r="M45" t="n">
         <v>140.3967875298255</v>
@@ -38110,16 +38110,16 @@
         <v>415.2075398629148</v>
       </c>
       <c r="O45" t="n">
-        <v>415.2075398629148</v>
+        <v>125.9004408157929</v>
       </c>
       <c r="P45" t="n">
         <v>88.35277600215818</v>
       </c>
       <c r="Q45" t="n">
-        <v>26.28626097583633</v>
+        <v>354.0068298437609</v>
       </c>
       <c r="R45" t="n">
-        <v>33.36365448854851</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
